--- a/docs/animal_survaillance_formated.xlsx
+++ b/docs/animal_survaillance_formated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\OHA\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8557E372-FC07-487D-9243-DF63327680D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C7646C-5400-4518-9DC5-440374B6F531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="353" windowWidth="24196" windowHeight="13244" xr2:uid="{D3255373-A79C-408E-A2BB-EA8E84852799}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="187">
   <si>
     <t>DISTRICT</t>
   </si>
@@ -590,6 +590,9 @@
   </si>
   <si>
     <t>REGION</t>
+  </si>
+  <si>
+    <t>SNO</t>
   </si>
 </sst>
 </file>
@@ -1003,102 +1006,105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B75DE5C1-95C7-49D6-BC47-2F75E747AC51}">
-  <dimension ref="A1:P81"/>
+  <dimension ref="A1:Q81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.06640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="6" max="6" width="19.1328125" customWidth="1"/>
-    <col min="9" max="9" width="16.73046875" customWidth="1"/>
-    <col min="11" max="11" width="14.86328125" customWidth="1"/>
-    <col min="12" max="12" width="14.796875" customWidth="1"/>
-    <col min="13" max="13" width="13.53125" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.06640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="7" max="7" width="19.1328125" customWidth="1"/>
+    <col min="10" max="10" width="16.73046875" customWidth="1"/>
+    <col min="12" max="12" width="14.86328125" customWidth="1"/>
+    <col min="13" max="13" width="14.796875" customWidth="1"/>
+    <col min="14" max="14" width="13.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="39" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" ht="26.25" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="6">
+      <c r="E2" s="6">
         <v>42444</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="5">
+        <v>17</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="5">
         <v>5</v>
       </c>
-      <c r="H2" s="7">
+      <c r="I2" s="7">
         <v>5</v>
       </c>
-      <c r="I2" s="7">
+      <c r="J2" s="7">
         <v>115</v>
       </c>
-      <c r="J2" s="7">
-        <v>0</v>
-      </c>
       <c r="K2" s="7">
         <v>0</v>
       </c>
@@ -1106,46 +1112,49 @@
         <v>0</v>
       </c>
       <c r="M2" s="7">
+        <v>0</v>
+      </c>
+      <c r="N2" s="7">
         <v>72</v>
       </c>
-      <c r="N2" s="8">
+      <c r="O2" s="8">
         <v>-5.5333333333120001</v>
       </c>
-      <c r="O2" s="8">
+      <c r="P2" s="8">
         <v>38.933333333295998</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A3" s="5" t="s">
-        <v>19</v>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="6">
+      <c r="E3" s="6">
         <v>42461</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="5">
+        <v>17</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="5">
         <v>5</v>
       </c>
-      <c r="H3" s="7">
+      <c r="I3" s="7">
         <v>5</v>
       </c>
-      <c r="I3" s="7">
+      <c r="J3" s="7">
         <v>1173</v>
       </c>
-      <c r="J3" s="7">
-        <v>0</v>
-      </c>
       <c r="K3" s="7">
         <v>0</v>
       </c>
@@ -1155,44 +1164,47 @@
       <c r="M3" s="7">
         <v>0</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="7">
+        <v>0</v>
+      </c>
+      <c r="O3" s="8">
         <v>-7.0999999999960002</v>
       </c>
-      <c r="O3" s="8">
+      <c r="P3" s="8">
         <v>37.566666666643997</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="6">
+      <c r="E4" s="6">
         <v>42464</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="5">
-        <v>1</v>
-      </c>
-      <c r="H4" s="7">
+        <v>17</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="5">
         <v>1</v>
       </c>
       <c r="I4" s="7">
+        <v>1</v>
+      </c>
+      <c r="J4" s="7">
         <v>20</v>
       </c>
-      <c r="J4" s="7">
-        <v>0</v>
-      </c>
       <c r="K4" s="7">
         <v>0</v>
       </c>
@@ -1202,91 +1214,97 @@
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="8">
         <v>-9.1999999999920004</v>
       </c>
-      <c r="O4" s="8">
+      <c r="P4" s="8">
         <v>33.183333333325997</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A5" s="5" t="s">
-        <v>24</v>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="6">
+      <c r="E5" s="6">
         <v>42476</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="5">
+        <v>17</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="5">
         <v>3</v>
       </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
       <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
         <v>201</v>
       </c>
-      <c r="J5" s="7">
-        <v>0</v>
-      </c>
       <c r="K5" s="7">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7">
         <v>3</v>
       </c>
-      <c r="L5" s="7">
-        <v>0</v>
-      </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="8">
         <v>-3.3499999999860002</v>
       </c>
-      <c r="O5" s="8">
+      <c r="P5" s="8">
         <v>36.699999999972</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="6">
         <v>42482</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="5">
-        <v>1</v>
-      </c>
-      <c r="H6" s="7">
+        <v>17</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="5">
         <v>1</v>
       </c>
       <c r="I6" s="7">
+        <v>1</v>
+      </c>
+      <c r="J6" s="7">
         <v>67</v>
       </c>
-      <c r="J6" s="7">
-        <v>0</v>
-      </c>
       <c r="K6" s="7">
         <v>0</v>
       </c>
@@ -1296,586 +1314,625 @@
       <c r="M6" s="7">
         <v>0</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="8">
         <v>-6.3666666666519998</v>
       </c>
-      <c r="O6" s="8">
+      <c r="P6" s="8">
         <v>31.033333333331999</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="6">
+      <c r="E7" s="6">
         <v>42489</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="5">
+        <v>17</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="5">
         <v>15</v>
       </c>
-      <c r="H7" s="7">
+      <c r="I7" s="7">
         <v>11</v>
       </c>
-      <c r="I7" s="7">
+      <c r="J7" s="7">
         <v>306</v>
       </c>
-      <c r="J7" s="7">
-        <v>0</v>
-      </c>
       <c r="K7" s="7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="7">
         <v>4</v>
       </c>
-      <c r="L7" s="7">
-        <v>0</v>
-      </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="8">
         <v>-5.4166666666500003</v>
       </c>
-      <c r="O7" s="8">
+      <c r="P7" s="8">
         <v>37.466666666648003</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="6">
+      <c r="E8" s="6">
         <v>42496</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="5">
+        <v>17</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="5">
         <v>4</v>
       </c>
-      <c r="H8" s="7">
+      <c r="I8" s="7">
         <v>2</v>
       </c>
-      <c r="I8" s="7">
+      <c r="J8" s="7">
         <v>69</v>
       </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="7">
+      <c r="K8" s="5"/>
+      <c r="L8" s="7">
         <v>2</v>
       </c>
-      <c r="L8" s="7">
-        <v>0</v>
-      </c>
       <c r="M8" s="7">
         <v>0</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="8">
         <v>-5.5833333333099997</v>
       </c>
-      <c r="O8" s="8">
+      <c r="P8" s="8">
         <v>37.349999999985997</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="6">
+      <c r="E9" s="6">
         <v>42505</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="5">
+        <v>17</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="5">
         <v>20</v>
       </c>
-      <c r="H9" s="7">
+      <c r="I9" s="7">
         <v>16</v>
       </c>
-      <c r="I9" s="7">
+      <c r="J9" s="7">
         <v>292</v>
       </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="7">
+      <c r="K9" s="5"/>
+      <c r="L9" s="7">
         <v>4</v>
       </c>
-      <c r="L9" s="7">
-        <v>0</v>
-      </c>
       <c r="M9" s="7">
+        <v>0</v>
+      </c>
+      <c r="N9" s="7">
         <v>41</v>
       </c>
-      <c r="N9" s="8">
+      <c r="O9" s="8">
         <v>-5.6499999999739998</v>
       </c>
-      <c r="O9" s="8">
+      <c r="P9" s="8">
         <v>37.583333333310001</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="6">
+      <c r="E10" s="6">
         <v>42506</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="5">
+        <v>17</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="5">
         <v>5</v>
       </c>
-      <c r="H10" s="7">
+      <c r="I10" s="7">
         <v>2</v>
       </c>
-      <c r="I10" s="7">
+      <c r="J10" s="7">
         <v>103</v>
       </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="7">
-        <v>0</v>
-      </c>
+      <c r="K10" s="5"/>
       <c r="L10" s="7">
         <v>0</v>
       </c>
       <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
         <v>13</v>
       </c>
-      <c r="N10" s="8">
+      <c r="O10" s="8">
         <v>-5.6499999999739998</v>
       </c>
-      <c r="O10" s="8">
+      <c r="P10" s="8">
         <v>37.583333333310001</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="6">
+      <c r="E11" s="6">
         <v>42507</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="5">
+        <v>17</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="5">
         <v>13</v>
       </c>
-      <c r="H11" s="7">
+      <c r="I11" s="7">
         <v>6</v>
       </c>
-      <c r="I11" s="7">
+      <c r="J11" s="7">
         <v>223</v>
       </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="7">
+      <c r="K11" s="5"/>
+      <c r="L11" s="7">
         <v>7</v>
       </c>
-      <c r="L11" s="7">
-        <v>0</v>
-      </c>
       <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
         <v>37</v>
       </c>
-      <c r="N11" s="8">
+      <c r="O11" s="8">
         <v>-5.6499999999739998</v>
       </c>
-      <c r="O11" s="8">
+      <c r="P11" s="8">
         <v>37.583333333310001</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="6">
         <v>42522</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="5">
+        <v>17</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="5">
         <v>2</v>
       </c>
-      <c r="H12" s="7">
+      <c r="I12" s="7">
         <v>2</v>
       </c>
-      <c r="I12" s="7">
+      <c r="J12" s="7">
         <v>50</v>
       </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="7">
-        <v>0</v>
-      </c>
+      <c r="K12" s="5"/>
       <c r="L12" s="7">
         <v>0</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="8">
         <v>-4.0988888888419996</v>
       </c>
-      <c r="O12" s="8">
+      <c r="P12" s="8">
         <v>37.763055555488997</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="6">
         <v>42542</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="5">
-        <v>1</v>
-      </c>
-      <c r="H13" s="7">
+        <v>17</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="5">
         <v>1</v>
       </c>
       <c r="I13" s="7">
+        <v>1</v>
+      </c>
+      <c r="J13" s="7">
         <v>337</v>
       </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="7">
-        <v>0</v>
-      </c>
+      <c r="K13" s="5"/>
       <c r="L13" s="7">
         <v>0</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
       </c>
-      <c r="N13" s="8">
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="8">
         <v>-4.7833333333020001</v>
       </c>
-      <c r="O13" s="8">
+      <c r="P13" s="8">
         <v>38.283333333321998</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="6">
+      <c r="E14" s="6">
         <v>42546</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="5">
-        <v>17</v>
-      </c>
-      <c r="H14" s="7">
+        <v>17</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="5">
+        <v>17</v>
+      </c>
+      <c r="I14" s="7">
         <v>10</v>
       </c>
-      <c r="I14" s="7">
+      <c r="J14" s="7">
         <v>153</v>
       </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="7">
+      <c r="K14" s="5"/>
+      <c r="L14" s="7">
         <v>7</v>
       </c>
-      <c r="L14" s="7">
-        <v>0</v>
-      </c>
       <c r="M14" s="7">
         <v>0</v>
       </c>
-      <c r="N14" s="8">
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="8">
         <v>-5.3833333333180002</v>
       </c>
-      <c r="O14" s="8">
+      <c r="P14" s="8">
         <v>37.683333333306003</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="6">
+      <c r="E15" s="6">
         <v>42560</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="5">
+        <v>17</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="5">
         <v>2</v>
       </c>
-      <c r="H15" s="7">
-        <v>1</v>
-      </c>
       <c r="I15" s="7">
+        <v>1</v>
+      </c>
+      <c r="J15" s="7">
         <v>95</v>
       </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="7">
-        <v>1</v>
-      </c>
+      <c r="K15" s="5"/>
       <c r="L15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="7">
-        <v>17</v>
-      </c>
-      <c r="N15" s="8">
+        <v>0</v>
+      </c>
+      <c r="N15" s="7">
+        <v>17</v>
+      </c>
+      <c r="O15" s="8">
         <v>-5.5833333333099997</v>
       </c>
-      <c r="O15" s="8">
+      <c r="P15" s="8">
         <v>37.349999999985997</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="6">
+      <c r="E16" s="6">
         <v>42613</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="5">
+        <v>17</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="5">
         <v>11</v>
       </c>
-      <c r="H16" s="7">
+      <c r="I16" s="7">
         <v>11</v>
       </c>
-      <c r="I16" s="7">
+      <c r="J16" s="7">
         <v>207</v>
       </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="7">
-        <v>0</v>
-      </c>
+      <c r="K16" s="5"/>
       <c r="L16" s="7">
         <v>0</v>
       </c>
       <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
         <v>29</v>
       </c>
-      <c r="N16" s="8">
+      <c r="O16" s="8">
         <v>-5.5833333333099997</v>
       </c>
-      <c r="O16" s="8">
+      <c r="P16" s="8">
         <v>37.349999999985997</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="6">
+      <c r="E17" s="6">
         <v>42644</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="5">
+        <v>17</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="5">
         <v>7</v>
       </c>
-      <c r="H17" s="7">
+      <c r="I17" s="7">
         <v>5</v>
       </c>
-      <c r="I17" s="7">
+      <c r="J17" s="7">
         <v>251</v>
       </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="7">
+      <c r="K17" s="5"/>
+      <c r="L17" s="7">
         <v>2</v>
       </c>
-      <c r="L17" s="7">
-        <v>0</v>
-      </c>
       <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
         <v>13</v>
       </c>
-      <c r="N17" s="8">
+      <c r="O17" s="8">
         <v>-5.5833333333099997</v>
       </c>
-      <c r="O17" s="8">
+      <c r="P17" s="8">
         <v>37.349999999985997</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="6">
+      <c r="E18" s="6">
         <v>42733</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="5">
+        <v>17</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="5">
         <v>2</v>
       </c>
-      <c r="H18" s="7">
+      <c r="I18" s="7">
         <v>2</v>
       </c>
-      <c r="I18" s="7">
+      <c r="J18" s="7">
         <v>50</v>
       </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="7">
-        <v>0</v>
-      </c>
+      <c r="K18" s="5"/>
       <c r="L18" s="7">
         <v>0</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
       </c>
-      <c r="N18" s="8">
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="8">
         <v>-6.8577777777220001</v>
       </c>
-      <c r="O18" s="8">
+      <c r="P18" s="8">
         <v>31.368888888868</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="6">
+      <c r="E19" s="6">
         <v>42742</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="5">
+        <v>17</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="5">
         <v>2</v>
       </c>
-      <c r="H19" s="7">
+      <c r="I19" s="7">
         <v>2</v>
       </c>
-      <c r="I19" s="7">
+      <c r="J19" s="7">
         <v>57</v>
       </c>
-      <c r="J19" s="7">
-        <v>0</v>
-      </c>
       <c r="K19" s="7">
         <v>0</v>
       </c>
@@ -1883,46 +1940,49 @@
         <v>0</v>
       </c>
       <c r="M19" s="7">
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
         <v>52</v>
       </c>
-      <c r="N19" s="8">
+      <c r="O19" s="8">
         <v>-4.6499999999739998</v>
       </c>
-      <c r="O19" s="8">
+      <c r="P19" s="8">
         <v>38.549999999977999</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="D20" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="6">
+      <c r="E20" s="6">
         <v>42794</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="5">
-        <v>1</v>
-      </c>
-      <c r="H20" s="7">
+        <v>17</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="5">
         <v>1</v>
       </c>
       <c r="I20" s="7">
+        <v>1</v>
+      </c>
+      <c r="J20" s="7">
         <v>157</v>
       </c>
-      <c r="J20" s="7">
-        <v>0</v>
-      </c>
       <c r="K20" s="7">
         <v>0</v>
       </c>
@@ -1932,44 +1992,47 @@
       <c r="M20" s="7">
         <v>0</v>
       </c>
-      <c r="N20" s="8">
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="8">
         <v>-6.8333333332999997</v>
       </c>
-      <c r="O20" s="8">
+      <c r="P20" s="8">
         <v>32.399999999983997</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="D21" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="6">
+      <c r="E21" s="6">
         <v>42824</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F21" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="5">
+        <v>17</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="5">
         <v>4</v>
       </c>
-      <c r="H21" s="7">
+      <c r="I21" s="7">
         <v>4</v>
       </c>
-      <c r="I21" s="7">
+      <c r="J21" s="7">
         <v>548</v>
       </c>
-      <c r="J21" s="7">
-        <v>0</v>
-      </c>
       <c r="K21" s="7">
         <v>0</v>
       </c>
@@ -1979,91 +2042,97 @@
       <c r="M21" s="7">
         <v>0</v>
       </c>
-      <c r="N21" s="8">
+      <c r="N21" s="7">
+        <v>0</v>
+      </c>
+      <c r="O21" s="8">
         <v>-7.0999999999960002</v>
       </c>
-      <c r="O21" s="8">
+      <c r="P21" s="8">
         <v>31.233333333324001</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="D22" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="6">
+      <c r="E22" s="6">
         <v>42878</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F22" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="5">
+        <v>17</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="5">
         <v>4</v>
       </c>
-      <c r="H22" s="7">
-        <v>1</v>
-      </c>
       <c r="I22" s="7">
+        <v>1</v>
+      </c>
+      <c r="J22" s="7">
         <v>185</v>
       </c>
-      <c r="J22" s="7">
+      <c r="K22" s="7">
         <v>4</v>
       </c>
-      <c r="K22" s="7">
-        <v>0</v>
-      </c>
       <c r="L22" s="7">
         <v>0</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
       </c>
-      <c r="N22" s="8">
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
+      <c r="O22" s="8">
         <v>-1.5333333333120001</v>
       </c>
-      <c r="O22" s="8">
+      <c r="P22" s="8">
         <v>33.866666666632</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="D23" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="6">
+      <c r="E23" s="6">
         <v>42917</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F23" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="5">
-        <v>1</v>
-      </c>
-      <c r="H23" s="7">
+        <v>17</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="5">
         <v>1</v>
       </c>
       <c r="I23" s="7">
+        <v>1</v>
+      </c>
+      <c r="J23" s="7">
         <v>56</v>
       </c>
-      <c r="J23" s="7">
-        <v>0</v>
-      </c>
       <c r="K23" s="7">
         <v>0</v>
       </c>
@@ -2073,44 +2142,47 @@
       <c r="M23" s="7">
         <v>0</v>
       </c>
-      <c r="N23" s="8">
+      <c r="N23" s="7">
+        <v>0</v>
+      </c>
+      <c r="O23" s="8">
         <v>3.6166666666420002</v>
       </c>
-      <c r="O23" s="8">
+      <c r="P23" s="8">
         <v>36.966666666628001</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="D24" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="6">
+      <c r="E24" s="6">
         <v>42921</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F24" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="5">
+        <v>17</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="5">
         <v>3</v>
       </c>
-      <c r="H24" s="7">
+      <c r="I24" s="7">
         <v>3</v>
       </c>
-      <c r="I24" s="7">
+      <c r="J24" s="7">
         <v>19</v>
       </c>
-      <c r="J24" s="7">
-        <v>0</v>
-      </c>
       <c r="K24" s="7">
         <v>0</v>
       </c>
@@ -2120,44 +2192,47 @@
       <c r="M24" s="7">
         <v>0</v>
       </c>
-      <c r="N24" s="8">
+      <c r="N24" s="7">
+        <v>0</v>
+      </c>
+      <c r="O24" s="8">
         <v>-5.5833333333099997</v>
       </c>
-      <c r="O24" s="8">
+      <c r="P24" s="8">
         <v>30.499999999980002</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="D25" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="6">
+      <c r="E25" s="6">
         <v>42934</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F25" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="5">
+        <v>17</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="5">
         <v>2</v>
       </c>
-      <c r="H25" s="7">
+      <c r="I25" s="7">
         <v>2</v>
       </c>
-      <c r="I25" s="7">
+      <c r="J25" s="7">
         <v>183</v>
       </c>
-      <c r="J25" s="7">
-        <v>0</v>
-      </c>
       <c r="K25" s="7">
         <v>0</v>
       </c>
@@ -2165,46 +2240,49 @@
         <v>0</v>
       </c>
       <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
         <v>5</v>
       </c>
-      <c r="N25" s="8">
+      <c r="O25" s="8">
         <v>-5.7833333333020001</v>
       </c>
-      <c r="O25" s="8">
+      <c r="P25" s="8">
         <v>38.849999999966002</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="D26" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="6">
+      <c r="E26" s="6">
         <v>42964</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F26" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="5">
-        <v>1</v>
-      </c>
-      <c r="H26" s="7">
+        <v>17</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="5">
         <v>1</v>
       </c>
       <c r="I26" s="7">
+        <v>1</v>
+      </c>
+      <c r="J26" s="7">
         <v>34</v>
       </c>
-      <c r="J26" s="7">
-        <v>0</v>
-      </c>
       <c r="K26" s="7">
         <v>0</v>
       </c>
@@ -2212,46 +2290,49 @@
         <v>0</v>
       </c>
       <c r="M26" s="7">
+        <v>0</v>
+      </c>
+      <c r="N26" s="7">
         <v>10</v>
       </c>
-      <c r="N26" s="8">
+      <c r="O26" s="8">
         <v>-3.3833333333179998</v>
       </c>
-      <c r="O26" s="8">
+      <c r="P26" s="8">
         <v>37.549999999977999</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="D27" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="6">
+      <c r="E27" s="6">
         <v>42968</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F27" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" s="5">
+        <v>17</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="5">
         <v>6</v>
       </c>
-      <c r="H27" s="7">
+      <c r="I27" s="7">
         <v>6</v>
       </c>
-      <c r="I27" s="7">
+      <c r="J27" s="7">
         <v>99</v>
       </c>
-      <c r="J27" s="7">
-        <v>0</v>
-      </c>
       <c r="K27" s="7">
         <v>0</v>
       </c>
@@ -2261,44 +2342,47 @@
       <c r="M27" s="7">
         <v>0</v>
       </c>
-      <c r="N27" s="8">
+      <c r="N27" s="7">
+        <v>0</v>
+      </c>
+      <c r="O27" s="8">
         <v>-6.7833333333020001</v>
       </c>
-      <c r="O27" s="8">
+      <c r="P27" s="8">
         <v>30.533333333312001</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="D28" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="6">
+      <c r="E28" s="6">
         <v>42991</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F28" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" s="5">
+        <v>17</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="5">
         <v>7</v>
       </c>
-      <c r="H28" s="7">
+      <c r="I28" s="7">
         <v>3</v>
       </c>
-      <c r="I28" s="7">
+      <c r="J28" s="7">
         <v>205</v>
       </c>
-      <c r="J28" s="7">
-        <v>0</v>
-      </c>
       <c r="K28" s="7">
         <v>0</v>
       </c>
@@ -2308,44 +2392,47 @@
       <c r="M28" s="7">
         <v>0</v>
       </c>
-      <c r="N28" s="8">
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+      <c r="O28" s="8">
         <v>-6.3666666666519998</v>
       </c>
-      <c r="O28" s="8">
+      <c r="P28" s="8">
         <v>31.233333333324001</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="C29" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="D29" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="6">
+      <c r="E29" s="6">
         <v>42994</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F29" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="5">
+        <v>17</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="5">
         <v>6</v>
       </c>
-      <c r="H29" s="7">
+      <c r="I29" s="7">
         <v>6</v>
       </c>
-      <c r="I29" s="7">
+      <c r="J29" s="7">
         <v>121</v>
       </c>
-      <c r="J29" s="7">
-        <v>0</v>
-      </c>
       <c r="K29" s="7">
         <v>0</v>
       </c>
@@ -2353,46 +2440,49 @@
         <v>0</v>
       </c>
       <c r="M29" s="7">
+        <v>0</v>
+      </c>
+      <c r="N29" s="7">
         <v>84</v>
       </c>
-      <c r="N29" s="8">
+      <c r="O29" s="8">
         <v>-5.3333333333199997</v>
       </c>
-      <c r="O29" s="8">
+      <c r="P29" s="8">
         <v>38.583333333310001</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="C30" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="D30" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="6">
+      <c r="E30" s="6">
         <v>42998</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F30" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" s="5">
+        <v>17</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" s="5">
         <v>16</v>
       </c>
-      <c r="H30" s="7">
+      <c r="I30" s="7">
         <v>10</v>
       </c>
-      <c r="I30" s="7">
+      <c r="J30" s="7">
         <v>200</v>
       </c>
-      <c r="J30" s="7">
-        <v>0</v>
-      </c>
       <c r="K30" s="7">
         <v>0</v>
       </c>
@@ -2402,44 +2492,47 @@
       <c r="M30" s="7">
         <v>0</v>
       </c>
-      <c r="N30" s="8">
+      <c r="N30" s="7">
+        <v>0</v>
+      </c>
+      <c r="O30" s="8">
         <v>-5.6333333333080002</v>
       </c>
-      <c r="O30" s="8">
+      <c r="P30" s="8">
         <v>37.599999999975999</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A31" s="5" t="s">
-        <v>52</v>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>52</v>
       </c>
       <c r="C31" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="6">
+      <c r="E31" s="6">
         <v>43034</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F31" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" s="5">
+        <v>17</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" s="5">
         <v>2</v>
       </c>
-      <c r="H31" s="7">
+      <c r="I31" s="7">
         <v>2</v>
       </c>
-      <c r="I31" s="7">
+      <c r="J31" s="7">
         <v>169</v>
       </c>
-      <c r="J31" s="7">
-        <v>0</v>
-      </c>
       <c r="K31" s="7">
         <v>0</v>
       </c>
@@ -2449,44 +2542,47 @@
       <c r="M31" s="7">
         <v>0</v>
       </c>
-      <c r="N31" s="8">
+      <c r="N31" s="7">
+        <v>0</v>
+      </c>
+      <c r="O31" s="8">
         <v>-5.9833333332940004</v>
       </c>
-      <c r="O31" s="8">
+      <c r="P31" s="8">
         <v>35.316666666654001</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A32" s="5" t="s">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="C32" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="D32" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="6">
+      <c r="E32" s="6">
         <v>43036</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F32" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" s="5">
+        <v>17</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="5">
         <v>4</v>
       </c>
-      <c r="H32" s="7">
+      <c r="I32" s="7">
         <v>4</v>
       </c>
-      <c r="I32" s="7">
+      <c r="J32" s="7">
         <v>56</v>
       </c>
-      <c r="J32" s="7">
-        <v>0</v>
-      </c>
       <c r="K32" s="7">
         <v>0</v>
       </c>
@@ -2494,329 +2590,350 @@
         <v>0</v>
       </c>
       <c r="M32" s="7">
+        <v>0</v>
+      </c>
+      <c r="N32" s="7">
         <v>20</v>
       </c>
-      <c r="N32" s="8">
+      <c r="O32" s="8">
         <v>-1.5833333333099999</v>
       </c>
-      <c r="O32" s="8">
+      <c r="P32" s="8">
         <v>33.799999999968001</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A33" s="5" t="s">
-        <v>55</v>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>55</v>
       </c>
       <c r="C33" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="6">
+      <c r="E33" s="6">
         <v>43115</v>
       </c>
-      <c r="E33" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F33" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" s="5">
-        <v>1</v>
-      </c>
-      <c r="H33" s="7">
+        <v>17</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" s="5">
         <v>1</v>
       </c>
       <c r="I33" s="7">
         <v>1</v>
       </c>
-      <c r="J33" s="9">
-        <v>0</v>
-      </c>
-      <c r="K33" s="7">
-        <v>1</v>
+      <c r="J33" s="7">
+        <v>1</v>
+      </c>
+      <c r="K33" s="9">
+        <v>0</v>
       </c>
       <c r="L33" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
       </c>
-      <c r="N33" s="8">
+      <c r="N33" s="7">
+        <v>0</v>
+      </c>
+      <c r="O33" s="8">
         <v>-2.8906930000000002</v>
       </c>
-      <c r="O33" s="8">
+      <c r="P33" s="8">
         <v>32.283157000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="C34" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="D34" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="6">
+      <c r="E34" s="6">
         <v>43151</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F34" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G34" s="5">
+      <c r="H34" s="5">
         <v>4</v>
       </c>
-      <c r="H34" s="7">
+      <c r="I34" s="7">
         <v>2</v>
       </c>
-      <c r="I34" s="7">
+      <c r="J34" s="7">
         <v>33</v>
       </c>
-      <c r="J34" s="9">
-        <v>0</v>
-      </c>
-      <c r="K34" s="7">
+      <c r="K34" s="9">
+        <v>0</v>
+      </c>
+      <c r="L34" s="7">
         <v>2</v>
       </c>
-      <c r="L34" s="10">
-        <v>0</v>
-      </c>
-      <c r="M34" s="7">
+      <c r="M34" s="10">
+        <v>0</v>
+      </c>
+      <c r="N34" s="7">
         <v>11</v>
       </c>
-      <c r="N34" s="8">
+      <c r="O34" s="8">
         <v>-5.5725100000000003</v>
       </c>
-      <c r="O34" s="8">
+      <c r="P34" s="8">
         <v>37.289540000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A35" s="5" t="s">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="C35" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="D35" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="6">
+      <c r="E35" s="6">
         <v>43230</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F35" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" s="5">
-        <v>1</v>
-      </c>
-      <c r="H35" s="7">
+        <v>17</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" s="5">
         <v>1</v>
       </c>
       <c r="I35" s="7">
+        <v>1</v>
+      </c>
+      <c r="J35" s="7">
         <v>162</v>
       </c>
-      <c r="J35" s="9">
-        <v>0</v>
-      </c>
-      <c r="K35" s="7">
-        <v>0</v>
-      </c>
-      <c r="L35" s="10">
-        <v>0</v>
-      </c>
-      <c r="M35" s="7">
-        <v>0</v>
-      </c>
-      <c r="N35" s="8">
+      <c r="K35" s="9">
+        <v>0</v>
+      </c>
+      <c r="L35" s="7">
+        <v>0</v>
+      </c>
+      <c r="M35" s="10">
+        <v>0</v>
+      </c>
+      <c r="N35" s="7">
+        <v>0</v>
+      </c>
+      <c r="O35" s="8">
         <v>-2.0231400000000002</v>
       </c>
-      <c r="O35" s="8">
+      <c r="P35" s="8">
         <v>33.861808000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A36" s="5" t="s">
-        <v>24</v>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C36" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D36" s="6">
+      <c r="E36" s="6">
         <v>43255</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F36" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G36" s="5">
-        <v>1</v>
-      </c>
-      <c r="H36" s="7">
-        <v>0</v>
+      <c r="H36" s="5">
+        <v>1</v>
       </c>
       <c r="I36" s="7">
+        <v>0</v>
+      </c>
+      <c r="J36" s="7">
         <v>96</v>
       </c>
-      <c r="J36" s="9">
-        <v>0</v>
-      </c>
-      <c r="K36" s="7">
-        <v>1</v>
-      </c>
-      <c r="L36" s="10">
-        <v>0</v>
-      </c>
-      <c r="M36" s="7">
-        <v>0</v>
-      </c>
-      <c r="N36" s="8">
+      <c r="K36" s="9">
+        <v>0</v>
+      </c>
+      <c r="L36" s="7">
+        <v>1</v>
+      </c>
+      <c r="M36" s="10">
+        <v>0</v>
+      </c>
+      <c r="N36" s="7">
+        <v>0</v>
+      </c>
+      <c r="O36" s="8">
         <v>-3.291382</v>
       </c>
-      <c r="O36" s="8">
+      <c r="P36" s="8">
         <v>36.675468000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A37" s="5" t="s">
-        <v>24</v>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C37" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D37" s="6">
+      <c r="E37" s="6">
         <v>43287</v>
       </c>
-      <c r="E37" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F37" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" s="5">
-        <v>1</v>
-      </c>
-      <c r="H37" s="7">
+        <v>17</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" s="5">
         <v>1</v>
       </c>
       <c r="I37" s="7">
+        <v>1</v>
+      </c>
+      <c r="J37" s="7">
         <v>135</v>
       </c>
-      <c r="J37" s="9">
-        <v>0</v>
-      </c>
-      <c r="K37" s="7">
-        <v>1</v>
+      <c r="K37" s="9">
+        <v>0</v>
       </c>
       <c r="L37" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
       </c>
-      <c r="N37" s="8">
+      <c r="N37" s="7">
+        <v>0</v>
+      </c>
+      <c r="O37" s="8">
         <v>-3.363127</v>
       </c>
-      <c r="O37" s="8">
+      <c r="P37" s="8">
         <v>36.709449999999997</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A38" s="5" t="s">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="C38" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="D38" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D38" s="6">
+      <c r="E38" s="6">
         <v>43326</v>
       </c>
-      <c r="E38" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F38" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" s="5">
+        <v>17</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" s="5">
         <v>4</v>
       </c>
-      <c r="H38" s="7">
+      <c r="I38" s="7">
         <v>2</v>
       </c>
-      <c r="I38" s="7">
+      <c r="J38" s="7">
         <v>123</v>
       </c>
-      <c r="J38" s="9">
-        <v>0</v>
-      </c>
-      <c r="K38" s="7">
+      <c r="K38" s="9">
+        <v>0</v>
+      </c>
+      <c r="L38" s="7">
         <v>2</v>
       </c>
-      <c r="L38" s="7">
-        <v>0</v>
-      </c>
       <c r="M38" s="7">
+        <v>0</v>
+      </c>
+      <c r="N38" s="7">
         <v>105</v>
       </c>
-      <c r="N38" s="8">
+      <c r="O38" s="8">
         <v>-5.1836630000000001</v>
       </c>
-      <c r="O38" s="8">
+      <c r="P38" s="8">
         <v>38.792712999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A39" s="5" t="s">
-        <v>24</v>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C39" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D39" s="6">
+      <c r="E39" s="6">
         <v>43326</v>
       </c>
-      <c r="E39" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F39" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G39" s="5">
-        <v>1</v>
-      </c>
-      <c r="H39" s="7">
-        <v>0</v>
+      <c r="H39" s="5">
+        <v>1</v>
       </c>
       <c r="I39" s="7">
+        <v>0</v>
+      </c>
+      <c r="J39" s="7">
         <v>1104</v>
       </c>
-      <c r="J39" s="9">
-        <v>0</v>
-      </c>
-      <c r="K39" s="7">
+      <c r="K39" s="9">
         <v>0</v>
       </c>
       <c r="L39" s="7">
@@ -2825,186 +2942,198 @@
       <c r="M39" s="7">
         <v>0</v>
       </c>
-      <c r="N39" s="8">
+      <c r="N39" s="7">
+        <v>0</v>
+      </c>
+      <c r="O39" s="8">
         <v>-3.3194279999999998</v>
       </c>
-      <c r="O39" s="8">
+      <c r="P39" s="8">
         <v>36.636612999999997</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A40" s="5" t="s">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="C40" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="D40" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D40" s="6">
+      <c r="E40" s="6">
         <v>43328</v>
       </c>
-      <c r="E40" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F40" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" s="5">
+        <v>17</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H40" s="5">
         <v>3</v>
       </c>
-      <c r="H40" s="7">
-        <v>0</v>
-      </c>
       <c r="I40" s="7">
+        <v>0</v>
+      </c>
+      <c r="J40" s="7">
         <v>69</v>
       </c>
-      <c r="J40" s="9">
-        <v>0</v>
-      </c>
-      <c r="K40" s="7">
+      <c r="K40" s="9">
+        <v>0</v>
+      </c>
+      <c r="L40" s="7">
         <v>4</v>
       </c>
-      <c r="L40" s="7">
-        <v>0</v>
-      </c>
       <c r="M40" s="7">
+        <v>0</v>
+      </c>
+      <c r="N40" s="7">
         <v>50</v>
       </c>
-      <c r="N40" s="8">
+      <c r="O40" s="8">
         <v>-5.185073</v>
       </c>
-      <c r="O40" s="8">
+      <c r="P40" s="8">
         <v>38.783496999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A41" s="5" t="s">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="C41" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="D41" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D41" s="6">
+      <c r="E41" s="6">
         <v>43338</v>
       </c>
-      <c r="E41" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F41" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G41" s="5">
+      <c r="H41" s="5">
         <v>2</v>
       </c>
-      <c r="H41" s="7">
-        <v>0</v>
-      </c>
       <c r="I41" s="7">
+        <v>0</v>
+      </c>
+      <c r="J41" s="7">
         <v>58</v>
       </c>
-      <c r="J41" s="9">
-        <v>0</v>
-      </c>
-      <c r="K41" s="7">
-        <v>1</v>
+      <c r="K41" s="9">
+        <v>0</v>
       </c>
       <c r="L41" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
       </c>
-      <c r="N41" s="8">
+      <c r="N41" s="7">
+        <v>0</v>
+      </c>
+      <c r="O41" s="8">
         <v>-6.1314640000000002</v>
       </c>
-      <c r="O41" s="8">
+      <c r="P41" s="8">
         <v>35.736801</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A42" s="5" t="s">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="C42" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="D42" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D42" s="6">
+      <c r="E42" s="6">
         <v>43356</v>
       </c>
-      <c r="E42" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F42" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" s="5">
-        <v>1</v>
-      </c>
-      <c r="H42" s="7">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H42" s="5">
+        <v>1</v>
       </c>
       <c r="I42" s="7">
+        <v>0</v>
+      </c>
+      <c r="J42" s="7">
         <v>314</v>
       </c>
-      <c r="J42" s="9">
-        <v>0</v>
-      </c>
-      <c r="K42" s="7">
-        <v>1</v>
+      <c r="K42" s="9">
+        <v>0</v>
       </c>
       <c r="L42" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
       </c>
-      <c r="N42" s="8">
+      <c r="N42" s="7">
+        <v>0</v>
+      </c>
+      <c r="O42" s="8">
         <v>-4.0584800000000003</v>
       </c>
-      <c r="O42" s="8">
+      <c r="P42" s="8">
         <v>37.752609999999997</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A43" s="5" t="s">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="C43" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="D43" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D43" s="6">
+      <c r="E43" s="6">
         <v>43361</v>
       </c>
-      <c r="E43" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F43" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" s="5">
-        <v>1</v>
-      </c>
-      <c r="H43" s="7">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H43" s="5">
+        <v>1</v>
       </c>
       <c r="I43" s="7">
+        <v>0</v>
+      </c>
+      <c r="J43" s="7">
         <v>53</v>
       </c>
-      <c r="J43" s="9">
-        <v>0</v>
-      </c>
-      <c r="K43" s="7">
+      <c r="K43" s="9">
         <v>0</v>
       </c>
       <c r="L43" s="7">
@@ -3013,92 +3142,98 @@
       <c r="M43" s="7">
         <v>0</v>
       </c>
-      <c r="N43" s="8">
+      <c r="N43" s="7">
+        <v>0</v>
+      </c>
+      <c r="O43" s="8">
         <v>-5.5730380000000004</v>
       </c>
-      <c r="O43" s="8">
+      <c r="P43" s="8">
         <v>37.289602000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A44" s="5" t="s">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="C44" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="D44" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D44" s="6">
+      <c r="E44" s="6">
         <v>43367</v>
       </c>
-      <c r="E44" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F44" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" s="5">
-        <v>1</v>
-      </c>
-      <c r="H44" s="7">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H44" s="5">
+        <v>1</v>
       </c>
       <c r="I44" s="7">
+        <v>0</v>
+      </c>
+      <c r="J44" s="7">
         <v>80</v>
       </c>
-      <c r="J44" s="9">
-        <v>0</v>
-      </c>
-      <c r="K44" s="7">
-        <v>1</v>
+      <c r="K44" s="9">
+        <v>0</v>
       </c>
       <c r="L44" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44" s="7">
         <v>0</v>
       </c>
-      <c r="N44" s="8">
+      <c r="N44" s="7">
+        <v>0</v>
+      </c>
+      <c r="O44" s="8">
         <v>-4.9023430000000001</v>
       </c>
-      <c r="O44" s="8">
+      <c r="P44" s="8">
         <v>35.801437</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A45" s="5" t="s">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="C45" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="D45" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D45" s="6">
+      <c r="E45" s="6">
         <v>43378</v>
       </c>
-      <c r="E45" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F45" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G45" s="5">
-        <v>1</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="H45" s="5">
         <v>1</v>
       </c>
       <c r="I45" s="7">
         <v>1</v>
       </c>
-      <c r="J45" s="9">
-        <v>0</v>
-      </c>
-      <c r="K45" s="7">
+      <c r="J45" s="7">
+        <v>1</v>
+      </c>
+      <c r="K45" s="9">
         <v>0</v>
       </c>
       <c r="L45" s="7">
@@ -3107,900 +3242,960 @@
       <c r="M45" s="7">
         <v>0</v>
       </c>
-      <c r="N45" s="8">
+      <c r="N45" s="7">
+        <v>0</v>
+      </c>
+      <c r="O45" s="8">
         <v>-4.2798049999999996</v>
       </c>
-      <c r="O45" s="8">
+      <c r="P45" s="8">
         <v>34.410567</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A46" s="5" t="s">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="C46" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="D46" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D46" s="6">
+      <c r="E46" s="6">
         <v>43417</v>
       </c>
-      <c r="E46" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F46" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G46" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G46" s="5">
-        <v>1</v>
-      </c>
-      <c r="H46" s="7">
+      <c r="H46" s="5">
         <v>1</v>
       </c>
       <c r="I46" s="7">
+        <v>1</v>
+      </c>
+      <c r="J46" s="7">
         <v>20</v>
       </c>
-      <c r="J46" s="9">
-        <v>0</v>
-      </c>
-      <c r="K46" s="7">
-        <v>1</v>
+      <c r="K46" s="9">
+        <v>0</v>
       </c>
       <c r="L46" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
       </c>
-      <c r="N46" s="8">
+      <c r="N46" s="7">
+        <v>0</v>
+      </c>
+      <c r="O46" s="8">
         <v>-7.0005369999999996</v>
       </c>
-      <c r="O46" s="8">
+      <c r="P46" s="8">
         <v>39.522843999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A47" s="5" t="s">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="C47" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="D47" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D47" s="6">
+      <c r="E47" s="6">
         <v>43467</v>
       </c>
-      <c r="E47" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F47" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G47" s="5">
-        <v>1</v>
-      </c>
-      <c r="H47" s="7">
-        <v>0</v>
+      <c r="H47" s="5">
+        <v>1</v>
       </c>
       <c r="I47" s="7">
+        <v>0</v>
+      </c>
+      <c r="J47" s="7">
         <v>250</v>
       </c>
-      <c r="J47" s="5"/>
-      <c r="K47" s="7">
-        <v>1</v>
-      </c>
+      <c r="K47" s="5"/>
       <c r="L47" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47" s="7">
         <v>0</v>
       </c>
-      <c r="N47" s="8">
+      <c r="N47" s="7">
+        <v>0</v>
+      </c>
+      <c r="O47" s="8">
         <v>-2.4533179999999999</v>
       </c>
-      <c r="O47" s="8">
+      <c r="P47" s="8">
         <v>32.911231999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A48" s="5" t="s">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="C48" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="D48" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D48" s="6">
+      <c r="E48" s="6">
         <v>43486</v>
       </c>
-      <c r="E48" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F48" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" s="5">
-        <v>1</v>
-      </c>
-      <c r="H48" s="7">
+        <v>17</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H48" s="5">
         <v>1</v>
       </c>
       <c r="I48" s="7">
+        <v>1</v>
+      </c>
+      <c r="J48" s="7">
         <v>82</v>
       </c>
-      <c r="J48" s="5"/>
-      <c r="K48" s="7">
-        <v>1</v>
-      </c>
+      <c r="K48" s="5"/>
       <c r="L48" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M48" s="7">
-        <v>17</v>
-      </c>
-      <c r="N48" s="8">
+        <v>0</v>
+      </c>
+      <c r="N48" s="7">
+        <v>17</v>
+      </c>
+      <c r="O48" s="8">
         <v>-3.194922</v>
       </c>
-      <c r="O48" s="8">
+      <c r="P48" s="8">
         <v>33.786512999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A49" s="5" t="s">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="C49" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="D49" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D49" s="6">
+      <c r="E49" s="6">
         <v>43491</v>
       </c>
-      <c r="E49" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F49" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G49" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="G49" s="5">
+      <c r="H49" s="5">
         <v>2</v>
       </c>
-      <c r="H49" s="7">
+      <c r="I49" s="7">
         <v>2</v>
       </c>
-      <c r="I49" s="7">
+      <c r="J49" s="7">
         <v>250</v>
       </c>
-      <c r="J49" s="5"/>
-      <c r="K49" s="7">
+      <c r="K49" s="5"/>
+      <c r="L49" s="7">
         <v>2</v>
       </c>
-      <c r="L49" s="7">
-        <v>0</v>
-      </c>
       <c r="M49" s="7">
         <v>0</v>
       </c>
-      <c r="N49" s="8">
+      <c r="N49" s="7">
+        <v>0</v>
+      </c>
+      <c r="O49" s="8">
         <v>-8.3057280000000002</v>
       </c>
-      <c r="O49" s="8">
+      <c r="P49" s="8">
         <v>31.527187000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A50" s="5" t="s">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="C50" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="D50" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D50" s="6">
+      <c r="E50" s="6">
         <v>43515</v>
       </c>
-      <c r="E50" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F50" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" s="5">
-        <v>1</v>
-      </c>
-      <c r="H50" s="7">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H50" s="5">
+        <v>1</v>
       </c>
       <c r="I50" s="7">
-        <v>1</v>
-      </c>
-      <c r="J50" s="5"/>
-      <c r="K50" s="7">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" s="7">
+        <v>1</v>
+      </c>
+      <c r="K50" s="5"/>
       <c r="L50" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50" s="7">
         <v>0</v>
       </c>
-      <c r="N50" s="8">
+      <c r="N50" s="7">
+        <v>0</v>
+      </c>
+      <c r="O50" s="8">
         <v>-4.5593300000000001</v>
       </c>
-      <c r="O50" s="8">
+      <c r="P50" s="8">
         <v>30.111338</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A51" s="5" t="s">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="C51" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="D51" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D51" s="6">
+      <c r="E51" s="6">
         <v>43556</v>
       </c>
-      <c r="E51" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F51" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" s="5">
+        <v>17</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H51" s="5">
         <v>7</v>
       </c>
-      <c r="H51" s="7">
+      <c r="I51" s="7">
         <v>7</v>
       </c>
-      <c r="I51" s="7">
+      <c r="J51" s="7">
         <v>7000</v>
       </c>
-      <c r="J51" s="5"/>
-      <c r="K51" s="7">
-        <v>0</v>
-      </c>
+      <c r="K51" s="5"/>
       <c r="L51" s="7">
         <v>0</v>
       </c>
       <c r="M51" s="7">
         <v>0</v>
       </c>
-      <c r="N51" s="8">
+      <c r="N51" s="7">
+        <v>0</v>
+      </c>
+      <c r="O51" s="8">
         <v>-8.2523479999999996</v>
       </c>
-      <c r="O51" s="8">
+      <c r="P51" s="8">
         <v>36.186768999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A52" s="5" t="s">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="C52" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="D52" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D52" s="6">
+      <c r="E52" s="6">
         <v>43562</v>
       </c>
-      <c r="E52" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F52" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" s="5">
-        <v>1</v>
-      </c>
-      <c r="H52" s="7">
+        <v>17</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52" s="5">
         <v>1</v>
       </c>
       <c r="I52" s="7">
-        <v>0</v>
-      </c>
-      <c r="J52" s="5"/>
-      <c r="K52" s="7">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J52" s="7">
+        <v>0</v>
+      </c>
+      <c r="K52" s="5"/>
       <c r="L52" s="7">
         <v>0</v>
       </c>
       <c r="M52" s="7">
         <v>0</v>
       </c>
-      <c r="N52" s="8">
+      <c r="N52" s="7">
+        <v>0</v>
+      </c>
+      <c r="O52" s="8">
         <v>-4.2142780000000002</v>
       </c>
-      <c r="O52" s="8">
+      <c r="P52" s="8">
         <v>33.180383999999997</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A53" s="5" t="s">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="C53" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="D53" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D53" s="6">
+      <c r="E53" s="6">
         <v>43562</v>
       </c>
-      <c r="E53" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F53" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" s="5">
-        <v>1</v>
-      </c>
-      <c r="H53" s="7">
+        <v>17</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H53" s="5">
         <v>1</v>
       </c>
       <c r="I53" s="7">
-        <v>0</v>
-      </c>
-      <c r="J53" s="5"/>
-      <c r="K53" s="7">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J53" s="7">
+        <v>0</v>
+      </c>
+      <c r="K53" s="5"/>
       <c r="L53" s="7">
         <v>0</v>
       </c>
       <c r="M53" s="7">
         <v>0</v>
       </c>
-      <c r="N53" s="8">
+      <c r="N53" s="7">
+        <v>0</v>
+      </c>
+      <c r="O53" s="8">
         <v>-4.2142780000000002</v>
       </c>
-      <c r="O53" s="8">
+      <c r="P53" s="8">
         <v>33.180383999999997</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A54" s="5" t="s">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="C54" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="D54" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D54" s="6">
+      <c r="E54" s="6">
         <v>43578</v>
       </c>
-      <c r="E54" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F54" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" s="5">
-        <v>1</v>
-      </c>
-      <c r="H54" s="7">
+        <v>17</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54" s="5">
         <v>1</v>
       </c>
       <c r="I54" s="7">
+        <v>1</v>
+      </c>
+      <c r="J54" s="7">
         <v>7</v>
       </c>
-      <c r="J54" s="5"/>
-      <c r="K54" s="7">
-        <v>1</v>
-      </c>
+      <c r="K54" s="5"/>
       <c r="L54" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M54" s="7">
         <v>0</v>
       </c>
-      <c r="N54" s="8">
+      <c r="N54" s="7">
+        <v>0</v>
+      </c>
+      <c r="O54" s="8">
         <v>-5.5726950000000004</v>
       </c>
-      <c r="O54" s="8">
+      <c r="P54" s="8">
         <v>37.289766999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A55" s="5" t="s">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="C55" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="D55" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D55" s="6">
+      <c r="E55" s="6">
         <v>43666</v>
       </c>
-      <c r="E55" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F55" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" s="5">
-        <v>1</v>
-      </c>
-      <c r="H55" s="7">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H55" s="5">
+        <v>1</v>
       </c>
       <c r="I55" s="7">
+        <v>0</v>
+      </c>
+      <c r="J55" s="7">
         <v>320</v>
       </c>
-      <c r="J55" s="5"/>
-      <c r="K55" s="7">
-        <v>1</v>
-      </c>
+      <c r="K55" s="5"/>
       <c r="L55" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M55" s="7">
+        <v>0</v>
+      </c>
+      <c r="N55" s="7">
         <v>241</v>
       </c>
-      <c r="N55" s="8">
+      <c r="O55" s="8">
         <v>-8.5366</v>
       </c>
-      <c r="O55" s="8">
+      <c r="P55" s="8">
         <v>33.429690999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A56" s="5" t="s">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="C56" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="D56" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D56" s="6">
+      <c r="E56" s="6">
         <v>43666</v>
       </c>
-      <c r="E56" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F56" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" s="5">
-        <v>1</v>
-      </c>
-      <c r="H56" s="7">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H56" s="5">
+        <v>1</v>
       </c>
       <c r="I56" s="7">
+        <v>0</v>
+      </c>
+      <c r="J56" s="7">
         <v>320</v>
       </c>
-      <c r="J56" s="5"/>
-      <c r="K56" s="7">
-        <v>1</v>
-      </c>
+      <c r="K56" s="5"/>
       <c r="L56" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M56" s="7">
+        <v>0</v>
+      </c>
+      <c r="N56" s="7">
         <v>241</v>
       </c>
-      <c r="N56" s="8">
+      <c r="O56" s="8">
         <v>-8.5366</v>
       </c>
-      <c r="O56" s="8">
+      <c r="P56" s="8">
         <v>33.429690999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A57" s="5" t="s">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="C57" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="D57" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D57" s="6">
+      <c r="E57" s="6">
         <v>43670</v>
       </c>
-      <c r="E57" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F57" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G57" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G57" s="5">
-        <v>1</v>
-      </c>
-      <c r="H57" s="7">
+      <c r="H57" s="5">
         <v>1</v>
       </c>
       <c r="I57" s="7">
+        <v>1</v>
+      </c>
+      <c r="J57" s="7">
         <v>2</v>
       </c>
-      <c r="J57" s="5"/>
-      <c r="K57" s="7">
-        <v>1</v>
-      </c>
+      <c r="K57" s="5"/>
       <c r="L57" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M57" s="7">
+        <v>0</v>
+      </c>
+      <c r="N57" s="7">
         <v>2</v>
       </c>
-      <c r="N57" s="8">
+      <c r="O57" s="8">
         <v>-3.1579999999999999</v>
       </c>
-      <c r="O57" s="8">
+      <c r="P57" s="8">
         <v>37.124723000000003</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A58" s="5" t="s">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="C58" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="D58" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D58" s="6">
+      <c r="E58" s="6">
         <v>43689</v>
       </c>
-      <c r="E58" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F58" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58" s="5">
+        <v>17</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H58" s="5">
         <v>3</v>
       </c>
-      <c r="H58" s="7">
-        <v>0</v>
-      </c>
       <c r="I58" s="7">
+        <v>0</v>
+      </c>
+      <c r="J58" s="7">
         <v>125</v>
       </c>
-      <c r="J58" s="5"/>
-      <c r="K58" s="7">
-        <v>0</v>
-      </c>
+      <c r="K58" s="5"/>
       <c r="L58" s="7">
         <v>0</v>
       </c>
       <c r="M58" s="7">
         <v>0</v>
       </c>
-      <c r="N58" s="8">
+      <c r="N58" s="7">
+        <v>0</v>
+      </c>
+      <c r="O58" s="8">
         <v>-11.048297</v>
       </c>
-      <c r="O58" s="8">
+      <c r="P58" s="8">
         <v>37.342269999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A59" s="5" t="s">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="C59" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="D59" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D59" s="6">
+      <c r="E59" s="6">
         <v>43693</v>
       </c>
-      <c r="E59" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F59" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G59" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="G59" s="5">
-        <v>1</v>
-      </c>
-      <c r="H59" s="7">
-        <v>0</v>
+      <c r="H59" s="5">
+        <v>1</v>
       </c>
       <c r="I59" s="7">
+        <v>0</v>
+      </c>
+      <c r="J59" s="7">
         <v>5</v>
       </c>
-      <c r="J59" s="5"/>
-      <c r="K59" s="7">
-        <v>0</v>
-      </c>
+      <c r="K59" s="5"/>
       <c r="L59" s="7">
         <v>0</v>
       </c>
       <c r="M59" s="7">
         <v>0</v>
       </c>
-      <c r="N59" s="8">
+      <c r="N59" s="7">
+        <v>0</v>
+      </c>
+      <c r="O59" s="8">
         <v>-3.581817</v>
       </c>
-      <c r="O59" s="8">
+      <c r="P59" s="8">
         <v>30.712530999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A60" s="5" t="s">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="C60" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="D60" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D60" s="6">
+      <c r="E60" s="6">
         <v>43707</v>
       </c>
-      <c r="E60" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F60" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G60" s="5">
-        <v>1</v>
-      </c>
-      <c r="H60" s="7">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H60" s="5">
+        <v>1</v>
       </c>
       <c r="I60" s="7">
+        <v>0</v>
+      </c>
+      <c r="J60" s="7">
         <v>2</v>
       </c>
-      <c r="J60" s="5"/>
-      <c r="K60" s="7">
-        <v>0</v>
-      </c>
+      <c r="K60" s="5"/>
       <c r="L60" s="7">
         <v>0</v>
       </c>
       <c r="M60" s="7">
         <v>0</v>
       </c>
-      <c r="N60" s="8">
+      <c r="N60" s="7">
+        <v>0</v>
+      </c>
+      <c r="O60" s="8">
         <v>-2.372255</v>
       </c>
-      <c r="O60" s="8">
+      <c r="P60" s="8">
         <v>33.578181999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A61" s="5" t="s">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="C61" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="D61" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D61" s="6">
+      <c r="E61" s="6">
         <v>43731</v>
       </c>
-      <c r="E61" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F61" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G61" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G61" s="5">
-        <v>1</v>
-      </c>
-      <c r="H61" s="7">
+      <c r="H61" s="5">
         <v>1</v>
       </c>
       <c r="I61" s="7">
+        <v>1</v>
+      </c>
+      <c r="J61" s="7">
         <v>45</v>
       </c>
-      <c r="J61" s="5"/>
-      <c r="K61" s="7">
-        <v>0</v>
-      </c>
+      <c r="K61" s="5"/>
       <c r="L61" s="7">
         <v>0</v>
       </c>
       <c r="M61" s="7">
         <v>0</v>
       </c>
-      <c r="N61" s="8">
+      <c r="N61" s="7">
+        <v>0</v>
+      </c>
+      <c r="O61" s="8">
         <v>-4.5211059999999996</v>
       </c>
-      <c r="O61" s="8">
+      <c r="P61" s="8">
         <v>35.382434000000003</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A62" s="5" t="s">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="C62" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="D62" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D62" s="6">
+      <c r="E62" s="6">
         <v>43738</v>
       </c>
-      <c r="E62" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F62" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G62" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="G62" s="5">
+      <c r="H62" s="5">
         <v>4</v>
       </c>
-      <c r="H62" s="7">
+      <c r="I62" s="7">
         <v>3</v>
       </c>
-      <c r="I62" s="7">
+      <c r="J62" s="7">
         <v>134</v>
       </c>
-      <c r="J62" s="5"/>
-      <c r="K62" s="7">
+      <c r="K62" s="5"/>
+      <c r="L62" s="7">
         <v>4</v>
       </c>
-      <c r="L62" s="7">
-        <v>0</v>
-      </c>
       <c r="M62" s="7">
         <v>0</v>
       </c>
-      <c r="N62" s="8">
+      <c r="N62" s="7">
+        <v>0</v>
+      </c>
+      <c r="O62" s="8">
         <v>-11.052213999999999</v>
       </c>
-      <c r="O62" s="8">
+      <c r="P62" s="8">
         <v>37.340727999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A63" s="5" t="s">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="C63" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="D63" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D63" s="6">
+      <c r="E63" s="6">
         <v>43785</v>
       </c>
-      <c r="E63" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F63" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G63" s="5">
+        <v>17</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H63" s="5">
         <v>2</v>
       </c>
-      <c r="H63" s="7">
+      <c r="I63" s="7">
         <v>2</v>
       </c>
-      <c r="I63" s="7">
+      <c r="J63" s="7">
         <v>5</v>
       </c>
-      <c r="J63" s="5"/>
-      <c r="K63" s="7">
-        <v>0</v>
-      </c>
+      <c r="K63" s="5"/>
       <c r="L63" s="7">
         <v>0</v>
       </c>
       <c r="M63" s="7">
         <v>0</v>
       </c>
-      <c r="N63" s="8">
+      <c r="N63" s="7">
+        <v>0</v>
+      </c>
+      <c r="O63" s="8">
         <v>-11.030972999999999</v>
       </c>
-      <c r="O63" s="8">
+      <c r="P63" s="8">
         <v>37.326377999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A64" s="5" t="s">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="C64" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="D64" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D64" s="6">
+      <c r="E64" s="6">
         <v>43813</v>
       </c>
-      <c r="E64" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F64" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" s="5">
-        <v>1</v>
-      </c>
-      <c r="H64" s="7">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H64" s="5">
+        <v>1</v>
       </c>
       <c r="I64" s="7">
-        <v>1</v>
-      </c>
-      <c r="J64" s="5"/>
-      <c r="K64" s="7">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" s="7">
+        <v>1</v>
+      </c>
+      <c r="K64" s="5"/>
       <c r="L64" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M64" s="7">
         <v>0</v>
       </c>
-      <c r="N64" s="8">
+      <c r="N64" s="7">
+        <v>0</v>
+      </c>
+      <c r="O64" s="8">
         <v>-9.2578344999999995</v>
       </c>
-      <c r="O64" s="8">
+      <c r="P64" s="8">
         <v>34.093295500000004</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A65" s="5" t="s">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="C65" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="D65" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D65" s="11">
+      <c r="E65" s="11">
         <v>44175</v>
       </c>
-      <c r="E65" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F65" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G65" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="G65" s="12">
-        <v>1</v>
-      </c>
       <c r="H65" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65" s="12">
         <v>0</v>
@@ -4011,47 +4206,50 @@
       <c r="M65" s="12">
         <v>0</v>
       </c>
-      <c r="N65" s="5" t="s">
+      <c r="N65" s="12">
+        <v>0</v>
+      </c>
+      <c r="O65" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="O65" s="5" t="s">
+      <c r="P65" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="P65" t="s">
+      <c r="Q65" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A66" s="5" t="s">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="C66" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="D66" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D66" s="11">
+      <c r="E66" s="11">
         <v>44161</v>
       </c>
-      <c r="E66" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F66" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G66" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="G66" s="12">
-        <v>1</v>
-      </c>
       <c r="H66" s="12">
         <v>1</v>
       </c>
       <c r="I66" s="12">
+        <v>1</v>
+      </c>
+      <c r="J66" s="12">
         <v>6</v>
       </c>
-      <c r="J66" s="12">
-        <v>0</v>
-      </c>
       <c r="K66" s="12">
         <v>0</v>
       </c>
@@ -4061,47 +4259,50 @@
       <c r="M66" s="12">
         <v>0</v>
       </c>
-      <c r="N66" s="5" t="s">
+      <c r="N66" s="12">
+        <v>0</v>
+      </c>
+      <c r="O66" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="O66" s="5" t="s">
+      <c r="P66" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="P66" t="s">
+      <c r="Q66" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A67" s="5" t="s">
-        <v>19</v>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A67">
+        <v>66</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C67" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D67" s="11">
+      <c r="E67" s="11">
         <v>44092</v>
       </c>
-      <c r="E67" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F67" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G67" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G67" s="12">
-        <v>1</v>
-      </c>
       <c r="H67" s="12">
         <v>1</v>
       </c>
       <c r="I67" s="12">
+        <v>1</v>
+      </c>
+      <c r="J67" s="12">
         <v>86</v>
       </c>
-      <c r="J67" s="12">
-        <v>0</v>
-      </c>
       <c r="K67" s="12">
         <v>0</v>
       </c>
@@ -4111,40 +4312,43 @@
       <c r="M67" s="12">
         <v>0</v>
       </c>
-      <c r="N67" s="5" t="s">
+      <c r="N67" s="12">
+        <v>0</v>
+      </c>
+      <c r="O67" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="O67" s="5" t="s">
+      <c r="P67" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="P67" t="s">
+      <c r="Q67" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A68" s="5" t="s">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="C68" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="D68" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D68" s="11">
+      <c r="E68" s="11">
         <v>43972</v>
       </c>
-      <c r="E68" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F68" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G68" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="G68" s="12">
-        <v>1</v>
-      </c>
       <c r="H68" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" s="12">
         <v>0</v>
@@ -4161,47 +4365,50 @@
       <c r="M68" s="12">
         <v>0</v>
       </c>
-      <c r="N68" s="5" t="s">
+      <c r="N68" s="12">
+        <v>0</v>
+      </c>
+      <c r="O68" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="O68" s="5" t="s">
+      <c r="P68" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="P68" t="s">
+      <c r="Q68" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A69" s="5" t="s">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="C69" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="D69" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D69" s="11">
+      <c r="E69" s="11">
         <v>43964</v>
       </c>
-      <c r="E69" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F69" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G69" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G69" s="12">
-        <v>1</v>
-      </c>
       <c r="H69" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" s="12">
+        <v>0</v>
+      </c>
+      <c r="J69" s="12">
         <v>2</v>
       </c>
-      <c r="J69" s="12">
-        <v>0</v>
-      </c>
       <c r="K69" s="12">
         <v>0</v>
       </c>
@@ -4211,97 +4418,103 @@
       <c r="M69" s="12">
         <v>0</v>
       </c>
-      <c r="N69" s="5" t="s">
+      <c r="N69" s="12">
+        <v>0</v>
+      </c>
+      <c r="O69" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="O69" s="5" t="s">
+      <c r="P69" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="P69" t="s">
+      <c r="Q69" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A70" s="5" t="s">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="C70" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="D70" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="D70" s="11">
+      <c r="E70" s="11">
         <v>43958</v>
       </c>
-      <c r="E70" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F70" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G70" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="G70" s="12">
+      <c r="H70" s="12">
         <v>4</v>
       </c>
-      <c r="H70" s="12">
-        <v>1</v>
-      </c>
       <c r="I70" s="12">
+        <v>1</v>
+      </c>
+      <c r="J70" s="12">
         <v>104</v>
       </c>
-      <c r="J70" s="12">
-        <v>1</v>
-      </c>
       <c r="K70" s="12">
         <v>1</v>
       </c>
-      <c r="L70" s="12" t="s">
-        <v>146</v>
+      <c r="L70" s="12">
+        <v>1</v>
       </c>
       <c r="M70" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="N70" s="5" t="s">
+      <c r="N70" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="O70" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="O70" s="5" t="s">
+      <c r="P70" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="P70" t="s">
+      <c r="Q70" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A71" s="5" t="s">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="C71" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="D71" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D71" s="11">
+      <c r="E71" s="11">
         <v>43950</v>
       </c>
-      <c r="E71" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F71" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G71" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="G71" s="12">
+      <c r="H71" s="12">
         <v>6</v>
       </c>
-      <c r="H71" s="12">
-        <v>1</v>
-      </c>
       <c r="I71" s="12">
+        <v>1</v>
+      </c>
+      <c r="J71" s="12">
         <v>53</v>
       </c>
-      <c r="J71" s="12">
-        <v>0</v>
-      </c>
       <c r="K71" s="12">
         <v>0</v>
       </c>
@@ -4309,95 +4522,101 @@
         <v>0</v>
       </c>
       <c r="M71" s="12">
+        <v>0</v>
+      </c>
+      <c r="N71" s="12">
         <v>12</v>
       </c>
-      <c r="N71" s="5" t="s">
+      <c r="O71" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="O71" s="5" t="s">
+      <c r="P71" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="P71" t="s">
+      <c r="Q71" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A72" s="5" t="s">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="C72" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="D72" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D72" s="11">
+      <c r="E72" s="11">
         <v>43937</v>
       </c>
-      <c r="E72" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F72" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G72" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="G72" s="12">
+      <c r="H72" s="12">
         <v>2</v>
       </c>
-      <c r="H72" s="12">
-        <v>0</v>
-      </c>
       <c r="I72" s="12">
         <v>0</v>
       </c>
       <c r="J72" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K72" s="12">
         <v>2</v>
       </c>
       <c r="L72" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M72" s="12">
         <v>0</v>
       </c>
-      <c r="N72" s="5" t="s">
+      <c r="N72" s="12">
+        <v>0</v>
+      </c>
+      <c r="O72" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="O72" s="5" t="s">
+      <c r="P72" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="P72" t="s">
+      <c r="Q72" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A73" s="5" t="s">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="C73" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="D73" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D73" s="11">
+      <c r="E73" s="11">
         <v>43933</v>
       </c>
-      <c r="E73" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F73" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G73" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="G73" s="12">
+      <c r="H73" s="12">
         <v>2</v>
       </c>
-      <c r="H73" s="12">
-        <v>1</v>
-      </c>
       <c r="I73" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" s="12">
         <v>0</v>
@@ -4411,143 +4630,152 @@
       <c r="M73" s="12">
         <v>0</v>
       </c>
-      <c r="N73" s="5" t="s">
+      <c r="N73" s="12">
+        <v>0</v>
+      </c>
+      <c r="O73" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="O73" s="5" t="s">
+      <c r="P73" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="P73" t="s">
+      <c r="Q73" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A74" s="5" t="s">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="C74" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="D74" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="D74" s="11">
+      <c r="E74" s="11">
         <v>43924</v>
       </c>
-      <c r="E74" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F74" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G74" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="G74" s="12">
-        <v>1</v>
-      </c>
       <c r="H74" s="12">
         <v>1</v>
       </c>
-      <c r="I74" s="13" t="s">
+      <c r="I74" s="12">
+        <v>1</v>
+      </c>
+      <c r="J74" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="J74" s="12">
-        <v>1</v>
-      </c>
       <c r="K74" s="12">
         <v>1</v>
       </c>
       <c r="L74" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M74" s="12">
         <v>0</v>
       </c>
-      <c r="N74" s="5" t="s">
+      <c r="N74" s="12">
+        <v>0</v>
+      </c>
+      <c r="O74" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="O74" s="5" t="s">
+      <c r="P74" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="P74" t="s">
+      <c r="Q74" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A75" s="5" t="s">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="C75" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="D75" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D75" s="11">
+      <c r="E75" s="11">
         <v>43907</v>
       </c>
-      <c r="E75" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F75" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G75" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G75" s="12">
+      <c r="H75" s="12">
         <v>3</v>
       </c>
-      <c r="H75" s="12">
-        <v>0</v>
-      </c>
       <c r="I75" s="12">
+        <v>0</v>
+      </c>
+      <c r="J75" s="12">
         <v>110</v>
-      </c>
-      <c r="J75" s="12">
-        <v>3</v>
       </c>
       <c r="K75" s="12">
         <v>3</v>
       </c>
       <c r="L75" s="12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M75" s="12">
+        <v>0</v>
+      </c>
+      <c r="N75" s="12">
         <v>67</v>
       </c>
-      <c r="N75" s="5" t="s">
+      <c r="O75" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="O75" s="5" t="s">
+      <c r="P75" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="P75" t="s">
+      <c r="Q75" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A76" s="5" t="s">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="C76" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="D76" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D76" s="11">
+      <c r="E76" s="11">
         <v>43906</v>
       </c>
-      <c r="E76" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F76" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G76" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G76" s="12">
-        <v>0</v>
-      </c>
       <c r="H76" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" s="12">
         <v>0</v>
@@ -4561,43 +4789,46 @@
       <c r="M76" s="12">
         <v>0</v>
       </c>
-      <c r="N76" s="5" t="s">
+      <c r="N76" s="12">
+        <v>0</v>
+      </c>
+      <c r="O76" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="O76" s="5" t="s">
+      <c r="P76" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="P76" t="s">
+      <c r="Q76" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A77" s="5" t="s">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="C77" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="D77" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="D77" s="11">
+      <c r="E77" s="11">
         <v>43895</v>
       </c>
-      <c r="E77" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F77" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G77" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="G77" s="12">
-        <v>1</v>
-      </c>
       <c r="H77" s="12">
         <v>1</v>
       </c>
       <c r="I77" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" s="12">
         <v>0</v>
@@ -4611,47 +4842,50 @@
       <c r="M77" s="12">
         <v>0</v>
       </c>
-      <c r="N77" s="5" t="s">
+      <c r="N77" s="12">
+        <v>0</v>
+      </c>
+      <c r="O77" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="O77" s="5" t="s">
+      <c r="P77" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="P77" t="s">
+      <c r="Q77" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A78" s="5" t="s">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="C78" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="D78" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="D78" s="11">
+      <c r="E78" s="11">
         <v>43874</v>
       </c>
-      <c r="E78" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F78" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G78" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="G78" s="12">
-        <v>2</v>
       </c>
       <c r="H78" s="12">
         <v>2</v>
       </c>
       <c r="I78" s="12">
+        <v>2</v>
+      </c>
+      <c r="J78" s="12">
         <v>250</v>
       </c>
-      <c r="J78" s="12">
-        <v>0</v>
-      </c>
       <c r="K78" s="12">
         <v>0</v>
       </c>
@@ -4661,90 +4895,96 @@
       <c r="M78" s="12">
         <v>0</v>
       </c>
-      <c r="N78" s="5" t="s">
+      <c r="N78" s="12">
+        <v>0</v>
+      </c>
+      <c r="O78" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="O78" s="5" t="s">
+      <c r="P78" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="P78" t="s">
+      <c r="Q78" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A79" s="5" t="s">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="C79" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="D79" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D79" s="11">
+      <c r="E79" s="11">
         <v>43861</v>
       </c>
-      <c r="E79" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F79" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G79" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G79" s="12">
+      <c r="H79" s="12">
         <v>4</v>
       </c>
-      <c r="H79" s="12">
-        <v>0</v>
-      </c>
       <c r="I79" s="12">
+        <v>0</v>
+      </c>
+      <c r="J79" s="12">
         <v>9904</v>
       </c>
-      <c r="J79" s="12">
-        <v>1</v>
-      </c>
       <c r="K79" s="12">
         <v>1</v>
       </c>
       <c r="L79" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M79" s="12">
         <v>0</v>
       </c>
-      <c r="N79" s="5" t="s">
+      <c r="N79" s="12">
+        <v>0</v>
+      </c>
+      <c r="O79" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="O79" s="5" t="s">
+      <c r="P79" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="P79" t="s">
+      <c r="Q79" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A80" s="5" t="s">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="C80" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="D80" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="D80" s="11">
+      <c r="E80" s="11">
         <v>43850</v>
       </c>
-      <c r="E80" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F80" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G80" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="G80" s="12">
-        <v>1</v>
-      </c>
       <c r="H80" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" s="12">
         <v>0</v>
@@ -4761,63 +5001,69 @@
       <c r="M80" s="12">
         <v>0</v>
       </c>
-      <c r="N80" s="5" t="s">
+      <c r="N80" s="12">
+        <v>0</v>
+      </c>
+      <c r="O80" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="O80" s="5" t="s">
+      <c r="P80" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="P80" t="s">
+      <c r="Q80" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A81" s="5" t="s">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="C81" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="D81" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="D81" s="11">
+      <c r="E81" s="11">
         <v>43848</v>
       </c>
-      <c r="E81" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F81" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G81" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="G81" s="12">
-        <v>1</v>
-      </c>
       <c r="H81" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" s="12">
+        <v>0</v>
+      </c>
+      <c r="J81" s="12">
         <v>2</v>
       </c>
-      <c r="J81" s="12">
-        <v>1</v>
-      </c>
       <c r="K81" s="12">
         <v>1</v>
       </c>
       <c r="L81" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M81" s="12">
         <v>0</v>
       </c>
-      <c r="N81" s="5" t="s">
+      <c r="N81" s="12">
+        <v>0</v>
+      </c>
+      <c r="O81" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="O81" s="5" t="s">
+      <c r="P81" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="P81" t="s">
+      <c r="Q81" t="s">
         <v>125</v>
       </c>
     </row>

--- a/docs/animal_survaillance_formated.xlsx
+++ b/docs/animal_survaillance_formated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\OHA\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C7646C-5400-4518-9DC5-440374B6F531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B385BE7-EF33-4397-9BF7-251FFD36C543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="353" windowWidth="24196" windowHeight="13244" xr2:uid="{D3255373-A79C-408E-A2BB-EA8E84852799}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" xr2:uid="{D3255373-A79C-408E-A2BB-EA8E84852799}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -600,8 +600,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -660,13 +660,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -675,22 +672,26 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1008,23 +1009,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B75DE5C1-95C7-49D6-BC47-2F75E747AC51}">
   <dimension ref="A1:Q81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.06640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="7" max="7" width="19.1328125" customWidth="1"/>
-    <col min="10" max="10" width="16.73046875" customWidth="1"/>
-    <col min="12" max="12" width="14.86328125" customWidth="1"/>
-    <col min="13" max="13" width="14.796875" customWidth="1"/>
-    <col min="14" max="14" width="13.53125" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26" style="14" customWidth="1"/>
+    <col min="7" max="7" width="19.109375" customWidth="1"/>
+    <col min="10" max="10" width="16.77734375" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="13" max="13" width="14.77734375" customWidth="1"/>
+    <col min="14" max="14" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>186</v>
       </c>
@@ -1037,7 +1039,7 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="11" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1049,4018 +1051,4018 @@
       <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="12">
         <v>42444</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="5">
+      <c r="F2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="4">
         <v>5</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="5">
         <v>5</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="5">
         <v>115</v>
       </c>
-      <c r="K2" s="7">
-        <v>0</v>
-      </c>
-      <c r="L2" s="7">
-        <v>0</v>
-      </c>
-      <c r="M2" s="7">
-        <v>0</v>
-      </c>
-      <c r="N2" s="7">
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5">
         <v>72</v>
       </c>
-      <c r="O2" s="8">
+      <c r="O2" s="6">
         <v>-5.5333333333120001</v>
       </c>
-      <c r="P2" s="8">
+      <c r="P2" s="6">
         <v>38.933333333295998</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="12">
         <v>42461</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="5">
+      <c r="F3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="4">
         <v>5</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="5">
         <v>5</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="5">
         <v>1173</v>
       </c>
-      <c r="K3" s="7">
-        <v>0</v>
-      </c>
-      <c r="L3" s="7">
-        <v>0</v>
-      </c>
-      <c r="M3" s="7">
-        <v>0</v>
-      </c>
-      <c r="N3" s="7">
-        <v>0</v>
-      </c>
-      <c r="O3" s="8">
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="6">
         <v>-7.0999999999960002</v>
       </c>
-      <c r="P3" s="8">
+      <c r="P3" s="6">
         <v>37.566666666643997</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="12">
         <v>42464</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="5">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1</v>
-      </c>
-      <c r="J4" s="7">
+      <c r="F4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5">
         <v>20</v>
       </c>
-      <c r="K4" s="7">
-        <v>0</v>
-      </c>
-      <c r="L4" s="7">
-        <v>0</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="8">
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="6">
         <v>-9.1999999999920004</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="6">
         <v>33.183333333325997</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="12">
         <v>42476</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="5">
+      <c r="F5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="4">
         <v>3</v>
       </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7">
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
         <v>201</v>
       </c>
-      <c r="K5" s="7">
-        <v>0</v>
-      </c>
-      <c r="L5" s="7">
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
         <v>3</v>
       </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="8">
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
         <v>-3.3499999999860002</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="6">
         <v>36.699999999972</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="12">
         <v>42482</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="5">
-        <v>1</v>
-      </c>
-      <c r="I6" s="7">
-        <v>1</v>
-      </c>
-      <c r="J6" s="7">
+      <c r="F6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5">
         <v>67</v>
       </c>
-      <c r="K6" s="7">
-        <v>0</v>
-      </c>
-      <c r="L6" s="7">
-        <v>0</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="8">
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
+      <c r="O6" s="6">
         <v>-6.3666666666519998</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="6">
         <v>31.033333333331999</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="12">
         <v>42489</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="5">
+      <c r="F7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="4">
         <v>15</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="5">
         <v>11</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="5">
         <v>306</v>
       </c>
-      <c r="K7" s="7">
-        <v>0</v>
-      </c>
-      <c r="L7" s="7">
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
         <v>4</v>
       </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="8">
+      <c r="M7" s="5">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0</v>
+      </c>
+      <c r="O7" s="6">
         <v>-5.4166666666500003</v>
       </c>
-      <c r="P7" s="8">
+      <c r="P7" s="6">
         <v>37.466666666648003</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="12">
         <v>42496</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="5">
+      <c r="F8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="4">
         <v>4</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="5">
         <v>2</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="5">
         <v>69</v>
       </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="7">
+      <c r="K8" s="4"/>
+      <c r="L8" s="5">
         <v>2</v>
       </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="8">
+      <c r="M8" s="5">
+        <v>0</v>
+      </c>
+      <c r="N8" s="5">
+        <v>0</v>
+      </c>
+      <c r="O8" s="6">
         <v>-5.5833333333099997</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P8" s="6">
         <v>37.349999999985997</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="12">
         <v>42505</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="5">
+      <c r="F9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="4">
         <v>20</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="5">
         <v>16</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="5">
         <v>292</v>
       </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="7">
+      <c r="K9" s="4"/>
+      <c r="L9" s="5">
         <v>4</v>
       </c>
-      <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7">
+      <c r="M9" s="5">
+        <v>0</v>
+      </c>
+      <c r="N9" s="5">
         <v>41</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9" s="6">
         <v>-5.6499999999739998</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9" s="6">
         <v>37.583333333310001</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="12">
         <v>42506</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="5">
+      <c r="F10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="4">
         <v>5</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="5">
         <v>2</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="5">
         <v>103</v>
       </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="7">
-        <v>0</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
+      <c r="K10" s="4"/>
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0</v>
+      </c>
+      <c r="N10" s="5">
         <v>13</v>
       </c>
-      <c r="O10" s="8">
+      <c r="O10" s="6">
         <v>-5.6499999999739998</v>
       </c>
-      <c r="P10" s="8">
+      <c r="P10" s="6">
         <v>37.583333333310001</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="12">
         <v>42507</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="5">
+      <c r="F11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="4">
         <v>13</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="5">
         <v>6</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="5">
         <v>223</v>
       </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="7">
+      <c r="K11" s="4"/>
+      <c r="L11" s="5">
         <v>7</v>
       </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7">
+      <c r="M11" s="5">
+        <v>0</v>
+      </c>
+      <c r="N11" s="5">
         <v>37</v>
       </c>
-      <c r="O11" s="8">
+      <c r="O11" s="6">
         <v>-5.6499999999739998</v>
       </c>
-      <c r="P11" s="8">
+      <c r="P11" s="6">
         <v>37.583333333310001</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="12">
         <v>42522</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="5">
+      <c r="F12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="4">
         <v>2</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="5">
         <v>2</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="5">
         <v>50</v>
       </c>
-      <c r="K12" s="5"/>
-      <c r="L12" s="7">
-        <v>0</v>
-      </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="O12" s="8">
+      <c r="K12" s="4"/>
+      <c r="L12" s="5">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5">
+        <v>0</v>
+      </c>
+      <c r="O12" s="6">
         <v>-4.0988888888419996</v>
       </c>
-      <c r="P12" s="8">
+      <c r="P12" s="6">
         <v>37.763055555488997</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="12">
         <v>42542</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="5">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1</v>
-      </c>
-      <c r="J13" s="7">
+      <c r="F13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5">
         <v>337</v>
       </c>
-      <c r="K13" s="5"/>
-      <c r="L13" s="7">
-        <v>0</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="8">
+      <c r="K13" s="4"/>
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5">
+        <v>0</v>
+      </c>
+      <c r="N13" s="5">
+        <v>0</v>
+      </c>
+      <c r="O13" s="6">
         <v>-4.7833333333020001</v>
       </c>
-      <c r="P13" s="8">
+      <c r="P13" s="6">
         <v>38.283333333321998</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="12">
         <v>42546</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="5">
-        <v>17</v>
-      </c>
-      <c r="I14" s="7">
+      <c r="F14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="4">
+        <v>17</v>
+      </c>
+      <c r="I14" s="5">
         <v>10</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="5">
         <v>153</v>
       </c>
-      <c r="K14" s="5"/>
-      <c r="L14" s="7">
+      <c r="K14" s="4"/>
+      <c r="L14" s="5">
         <v>7</v>
       </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="8">
+      <c r="M14" s="5">
+        <v>0</v>
+      </c>
+      <c r="N14" s="5">
+        <v>0</v>
+      </c>
+      <c r="O14" s="6">
         <v>-5.3833333333180002</v>
       </c>
-      <c r="P14" s="8">
+      <c r="P14" s="6">
         <v>37.683333333306003</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="12">
         <v>42560</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="5">
+      <c r="F15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="4">
         <v>2</v>
       </c>
-      <c r="I15" s="7">
-        <v>1</v>
-      </c>
-      <c r="J15" s="7">
+      <c r="I15" s="5">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5">
         <v>95</v>
       </c>
-      <c r="K15" s="5"/>
-      <c r="L15" s="7">
-        <v>1</v>
-      </c>
-      <c r="M15" s="7">
-        <v>0</v>
-      </c>
-      <c r="N15" s="7">
-        <v>17</v>
-      </c>
-      <c r="O15" s="8">
+      <c r="K15" s="4"/>
+      <c r="L15" s="5">
+        <v>1</v>
+      </c>
+      <c r="M15" s="5">
+        <v>0</v>
+      </c>
+      <c r="N15" s="5">
+        <v>17</v>
+      </c>
+      <c r="O15" s="6">
         <v>-5.5833333333099997</v>
       </c>
-      <c r="P15" s="8">
+      <c r="P15" s="6">
         <v>37.349999999985997</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="12">
         <v>42613</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="5">
+      <c r="F16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="4">
         <v>11</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="5">
         <v>11</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="5">
         <v>207</v>
       </c>
-      <c r="K16" s="5"/>
-      <c r="L16" s="7">
-        <v>0</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
+      <c r="K16" s="4"/>
+      <c r="L16" s="5">
+        <v>0</v>
+      </c>
+      <c r="M16" s="5">
+        <v>0</v>
+      </c>
+      <c r="N16" s="5">
         <v>29</v>
       </c>
-      <c r="O16" s="8">
+      <c r="O16" s="6">
         <v>-5.5833333333099997</v>
       </c>
-      <c r="P16" s="8">
+      <c r="P16" s="6">
         <v>37.349999999985997</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="12">
         <v>42644</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="5">
+      <c r="F17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="4">
         <v>7</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="5">
         <v>5</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="5">
         <v>251</v>
       </c>
-      <c r="K17" s="5"/>
-      <c r="L17" s="7">
+      <c r="K17" s="4"/>
+      <c r="L17" s="5">
         <v>2</v>
       </c>
-      <c r="M17" s="7">
-        <v>0</v>
-      </c>
-      <c r="N17" s="7">
+      <c r="M17" s="5">
+        <v>0</v>
+      </c>
+      <c r="N17" s="5">
         <v>13</v>
       </c>
-      <c r="O17" s="8">
+      <c r="O17" s="6">
         <v>-5.5833333333099997</v>
       </c>
-      <c r="P17" s="8">
+      <c r="P17" s="6">
         <v>37.349999999985997</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="12">
         <v>42733</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="5">
+      <c r="F18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="4">
         <v>2</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="5">
         <v>2</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="5">
         <v>50</v>
       </c>
-      <c r="K18" s="5"/>
-      <c r="L18" s="7">
-        <v>0</v>
-      </c>
-      <c r="M18" s="7">
-        <v>0</v>
-      </c>
-      <c r="N18" s="7">
-        <v>0</v>
-      </c>
-      <c r="O18" s="8">
+      <c r="K18" s="4"/>
+      <c r="L18" s="5">
+        <v>0</v>
+      </c>
+      <c r="M18" s="5">
+        <v>0</v>
+      </c>
+      <c r="N18" s="5">
+        <v>0</v>
+      </c>
+      <c r="O18" s="6">
         <v>-6.8577777777220001</v>
       </c>
-      <c r="P18" s="8">
+      <c r="P18" s="6">
         <v>31.368888888868</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="12">
         <v>42742</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="5">
+      <c r="F19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="4">
         <v>2</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="5">
         <v>2</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="5">
         <v>57</v>
       </c>
-      <c r="K19" s="7">
-        <v>0</v>
-      </c>
-      <c r="L19" s="7">
-        <v>0</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
+      <c r="K19" s="5">
+        <v>0</v>
+      </c>
+      <c r="L19" s="5">
+        <v>0</v>
+      </c>
+      <c r="M19" s="5">
+        <v>0</v>
+      </c>
+      <c r="N19" s="5">
         <v>52</v>
       </c>
-      <c r="O19" s="8">
+      <c r="O19" s="6">
         <v>-4.6499999999739998</v>
       </c>
-      <c r="P19" s="8">
+      <c r="P19" s="6">
         <v>38.549999999977999</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="12">
         <v>42794</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="5">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1</v>
-      </c>
-      <c r="J20" s="7">
+      <c r="F20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="4">
+        <v>1</v>
+      </c>
+      <c r="I20" s="5">
+        <v>1</v>
+      </c>
+      <c r="J20" s="5">
         <v>157</v>
       </c>
-      <c r="K20" s="7">
-        <v>0</v>
-      </c>
-      <c r="L20" s="7">
-        <v>0</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="8">
+      <c r="K20" s="5">
+        <v>0</v>
+      </c>
+      <c r="L20" s="5">
+        <v>0</v>
+      </c>
+      <c r="M20" s="5">
+        <v>0</v>
+      </c>
+      <c r="N20" s="5">
+        <v>0</v>
+      </c>
+      <c r="O20" s="6">
         <v>-6.8333333332999997</v>
       </c>
-      <c r="P20" s="8">
+      <c r="P20" s="6">
         <v>32.399999999983997</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="12">
         <v>42824</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="5">
+      <c r="F21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="4">
         <v>4</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="5">
         <v>4</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="5">
         <v>548</v>
       </c>
-      <c r="K21" s="7">
-        <v>0</v>
-      </c>
-      <c r="L21" s="7">
-        <v>0</v>
-      </c>
-      <c r="M21" s="7">
-        <v>0</v>
-      </c>
-      <c r="N21" s="7">
-        <v>0</v>
-      </c>
-      <c r="O21" s="8">
+      <c r="K21" s="5">
+        <v>0</v>
+      </c>
+      <c r="L21" s="5">
+        <v>0</v>
+      </c>
+      <c r="M21" s="5">
+        <v>0</v>
+      </c>
+      <c r="N21" s="5">
+        <v>0</v>
+      </c>
+      <c r="O21" s="6">
         <v>-7.0999999999960002</v>
       </c>
-      <c r="P21" s="8">
+      <c r="P21" s="6">
         <v>31.233333333324001</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="12">
         <v>42878</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="5">
+      <c r="F22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="4">
         <v>4</v>
       </c>
-      <c r="I22" s="7">
-        <v>1</v>
-      </c>
-      <c r="J22" s="7">
+      <c r="I22" s="5">
+        <v>1</v>
+      </c>
+      <c r="J22" s="5">
         <v>185</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="5">
         <v>4</v>
       </c>
-      <c r="L22" s="7">
-        <v>0</v>
-      </c>
-      <c r="M22" s="7">
-        <v>0</v>
-      </c>
-      <c r="N22" s="7">
-        <v>0</v>
-      </c>
-      <c r="O22" s="8">
+      <c r="L22" s="5">
+        <v>0</v>
+      </c>
+      <c r="M22" s="5">
+        <v>0</v>
+      </c>
+      <c r="N22" s="5">
+        <v>0</v>
+      </c>
+      <c r="O22" s="6">
         <v>-1.5333333333120001</v>
       </c>
-      <c r="P22" s="8">
+      <c r="P22" s="6">
         <v>33.866666666632</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="12">
         <v>42917</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="5">
-        <v>1</v>
-      </c>
-      <c r="I23" s="7">
-        <v>1</v>
-      </c>
-      <c r="J23" s="7">
+      <c r="F23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="4">
+        <v>1</v>
+      </c>
+      <c r="I23" s="5">
+        <v>1</v>
+      </c>
+      <c r="J23" s="5">
         <v>56</v>
       </c>
-      <c r="K23" s="7">
-        <v>0</v>
-      </c>
-      <c r="L23" s="7">
-        <v>0</v>
-      </c>
-      <c r="M23" s="7">
-        <v>0</v>
-      </c>
-      <c r="N23" s="7">
-        <v>0</v>
-      </c>
-      <c r="O23" s="8">
+      <c r="K23" s="5">
+        <v>0</v>
+      </c>
+      <c r="L23" s="5">
+        <v>0</v>
+      </c>
+      <c r="M23" s="5">
+        <v>0</v>
+      </c>
+      <c r="N23" s="5">
+        <v>0</v>
+      </c>
+      <c r="O23" s="6">
         <v>3.6166666666420002</v>
       </c>
-      <c r="P23" s="8">
+      <c r="P23" s="6">
         <v>36.966666666628001</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="12">
         <v>42921</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" s="5">
+      <c r="F24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="4">
         <v>3</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="5">
         <v>3</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J24" s="5">
         <v>19</v>
       </c>
-      <c r="K24" s="7">
-        <v>0</v>
-      </c>
-      <c r="L24" s="7">
-        <v>0</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="8">
+      <c r="K24" s="5">
+        <v>0</v>
+      </c>
+      <c r="L24" s="5">
+        <v>0</v>
+      </c>
+      <c r="M24" s="5">
+        <v>0</v>
+      </c>
+      <c r="N24" s="5">
+        <v>0</v>
+      </c>
+      <c r="O24" s="6">
         <v>-5.5833333333099997</v>
       </c>
-      <c r="P24" s="8">
+      <c r="P24" s="6">
         <v>30.499999999980002</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="12">
         <v>42934</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" s="5">
+      <c r="F25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="4">
         <v>2</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="5">
         <v>2</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J25" s="5">
         <v>183</v>
       </c>
-      <c r="K25" s="7">
-        <v>0</v>
-      </c>
-      <c r="L25" s="7">
-        <v>0</v>
-      </c>
-      <c r="M25" s="7">
-        <v>0</v>
-      </c>
-      <c r="N25" s="7">
+      <c r="K25" s="5">
+        <v>0</v>
+      </c>
+      <c r="L25" s="5">
+        <v>0</v>
+      </c>
+      <c r="M25" s="5">
+        <v>0</v>
+      </c>
+      <c r="N25" s="5">
         <v>5</v>
       </c>
-      <c r="O25" s="8">
+      <c r="O25" s="6">
         <v>-5.7833333333020001</v>
       </c>
-      <c r="P25" s="8">
+      <c r="P25" s="6">
         <v>38.849999999966002</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="12">
         <v>42964</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" s="5">
-        <v>1</v>
-      </c>
-      <c r="I26" s="7">
-        <v>1</v>
-      </c>
-      <c r="J26" s="7">
+      <c r="F26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="4">
+        <v>1</v>
+      </c>
+      <c r="I26" s="5">
+        <v>1</v>
+      </c>
+      <c r="J26" s="5">
         <v>34</v>
       </c>
-      <c r="K26" s="7">
-        <v>0</v>
-      </c>
-      <c r="L26" s="7">
-        <v>0</v>
-      </c>
-      <c r="M26" s="7">
-        <v>0</v>
-      </c>
-      <c r="N26" s="7">
+      <c r="K26" s="5">
+        <v>0</v>
+      </c>
+      <c r="L26" s="5">
+        <v>0</v>
+      </c>
+      <c r="M26" s="5">
+        <v>0</v>
+      </c>
+      <c r="N26" s="5">
         <v>10</v>
       </c>
-      <c r="O26" s="8">
+      <c r="O26" s="6">
         <v>-3.3833333333179998</v>
       </c>
-      <c r="P26" s="8">
+      <c r="P26" s="6">
         <v>37.549999999977999</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="12">
         <v>42968</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" s="5">
+      <c r="F27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="4">
         <v>6</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="5">
         <v>6</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J27" s="5">
         <v>99</v>
       </c>
-      <c r="K27" s="7">
-        <v>0</v>
-      </c>
-      <c r="L27" s="7">
-        <v>0</v>
-      </c>
-      <c r="M27" s="7">
-        <v>0</v>
-      </c>
-      <c r="N27" s="7">
-        <v>0</v>
-      </c>
-      <c r="O27" s="8">
+      <c r="K27" s="5">
+        <v>0</v>
+      </c>
+      <c r="L27" s="5">
+        <v>0</v>
+      </c>
+      <c r="M27" s="5">
+        <v>0</v>
+      </c>
+      <c r="N27" s="5">
+        <v>0</v>
+      </c>
+      <c r="O27" s="6">
         <v>-6.7833333333020001</v>
       </c>
-      <c r="P27" s="8">
+      <c r="P27" s="6">
         <v>30.533333333312001</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="12">
         <v>42991</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" s="5">
+      <c r="F28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="4">
         <v>7</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="5">
         <v>3</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J28" s="5">
         <v>205</v>
       </c>
-      <c r="K28" s="7">
-        <v>0</v>
-      </c>
-      <c r="L28" s="7">
-        <v>0</v>
-      </c>
-      <c r="M28" s="7">
-        <v>0</v>
-      </c>
-      <c r="N28" s="7">
-        <v>0</v>
-      </c>
-      <c r="O28" s="8">
+      <c r="K28" s="5">
+        <v>0</v>
+      </c>
+      <c r="L28" s="5">
+        <v>0</v>
+      </c>
+      <c r="M28" s="5">
+        <v>0</v>
+      </c>
+      <c r="N28" s="5">
+        <v>0</v>
+      </c>
+      <c r="O28" s="6">
         <v>-6.3666666666519998</v>
       </c>
-      <c r="P28" s="8">
+      <c r="P28" s="6">
         <v>31.233333333324001</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="12">
         <v>42994</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H29" s="5">
+      <c r="F29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="4">
         <v>6</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="5">
         <v>6</v>
       </c>
-      <c r="J29" s="7">
+      <c r="J29" s="5">
         <v>121</v>
       </c>
-      <c r="K29" s="7">
-        <v>0</v>
-      </c>
-      <c r="L29" s="7">
-        <v>0</v>
-      </c>
-      <c r="M29" s="7">
-        <v>0</v>
-      </c>
-      <c r="N29" s="7">
+      <c r="K29" s="5">
+        <v>0</v>
+      </c>
+      <c r="L29" s="5">
+        <v>0</v>
+      </c>
+      <c r="M29" s="5">
+        <v>0</v>
+      </c>
+      <c r="N29" s="5">
         <v>84</v>
       </c>
-      <c r="O29" s="8">
+      <c r="O29" s="6">
         <v>-5.3333333333199997</v>
       </c>
-      <c r="P29" s="8">
+      <c r="P29" s="6">
         <v>38.583333333310001</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="12">
         <v>42998</v>
       </c>
-      <c r="F30" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H30" s="5">
+      <c r="F30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" s="4">
         <v>16</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="5">
         <v>10</v>
       </c>
-      <c r="J30" s="7">
+      <c r="J30" s="5">
         <v>200</v>
       </c>
-      <c r="K30" s="7">
-        <v>0</v>
-      </c>
-      <c r="L30" s="7">
-        <v>0</v>
-      </c>
-      <c r="M30" s="7">
-        <v>0</v>
-      </c>
-      <c r="N30" s="7">
-        <v>0</v>
-      </c>
-      <c r="O30" s="8">
+      <c r="K30" s="5">
+        <v>0</v>
+      </c>
+      <c r="L30" s="5">
+        <v>0</v>
+      </c>
+      <c r="M30" s="5">
+        <v>0</v>
+      </c>
+      <c r="N30" s="5">
+        <v>0</v>
+      </c>
+      <c r="O30" s="6">
         <v>-5.6333333333080002</v>
       </c>
-      <c r="P30" s="8">
+      <c r="P30" s="6">
         <v>37.599999999975999</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="12">
         <v>43034</v>
       </c>
-      <c r="F31" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H31" s="5">
+      <c r="F31" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" s="4">
         <v>2</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="5">
         <v>2</v>
       </c>
-      <c r="J31" s="7">
+      <c r="J31" s="5">
         <v>169</v>
       </c>
-      <c r="K31" s="7">
-        <v>0</v>
-      </c>
-      <c r="L31" s="7">
-        <v>0</v>
-      </c>
-      <c r="M31" s="7">
-        <v>0</v>
-      </c>
-      <c r="N31" s="7">
-        <v>0</v>
-      </c>
-      <c r="O31" s="8">
+      <c r="K31" s="5">
+        <v>0</v>
+      </c>
+      <c r="L31" s="5">
+        <v>0</v>
+      </c>
+      <c r="M31" s="5">
+        <v>0</v>
+      </c>
+      <c r="N31" s="5">
+        <v>0</v>
+      </c>
+      <c r="O31" s="6">
         <v>-5.9833333332940004</v>
       </c>
-      <c r="P31" s="8">
+      <c r="P31" s="6">
         <v>35.316666666654001</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="12">
         <v>43036</v>
       </c>
-      <c r="F32" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H32" s="5">
+      <c r="F32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="4">
         <v>4</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="5">
         <v>4</v>
       </c>
-      <c r="J32" s="7">
+      <c r="J32" s="5">
         <v>56</v>
       </c>
-      <c r="K32" s="7">
-        <v>0</v>
-      </c>
-      <c r="L32" s="7">
-        <v>0</v>
-      </c>
-      <c r="M32" s="7">
-        <v>0</v>
-      </c>
-      <c r="N32" s="7">
+      <c r="K32" s="5">
+        <v>0</v>
+      </c>
+      <c r="L32" s="5">
+        <v>0</v>
+      </c>
+      <c r="M32" s="5">
+        <v>0</v>
+      </c>
+      <c r="N32" s="5">
         <v>20</v>
       </c>
-      <c r="O32" s="8">
+      <c r="O32" s="6">
         <v>-1.5833333333099999</v>
       </c>
-      <c r="P32" s="8">
+      <c r="P32" s="6">
         <v>33.799999999968001</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="12">
         <v>43115</v>
       </c>
-      <c r="F33" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H33" s="5">
-        <v>1</v>
-      </c>
-      <c r="I33" s="7">
-        <v>1</v>
-      </c>
-      <c r="J33" s="7">
-        <v>1</v>
-      </c>
-      <c r="K33" s="9">
-        <v>0</v>
-      </c>
-      <c r="L33" s="7">
-        <v>1</v>
-      </c>
-      <c r="M33" s="7">
-        <v>0</v>
-      </c>
-      <c r="N33" s="7">
-        <v>0</v>
-      </c>
-      <c r="O33" s="8">
+      <c r="F33" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" s="4">
+        <v>1</v>
+      </c>
+      <c r="I33" s="5">
+        <v>1</v>
+      </c>
+      <c r="J33" s="5">
+        <v>1</v>
+      </c>
+      <c r="K33" s="7">
+        <v>0</v>
+      </c>
+      <c r="L33" s="5">
+        <v>1</v>
+      </c>
+      <c r="M33" s="5">
+        <v>0</v>
+      </c>
+      <c r="N33" s="5">
+        <v>0</v>
+      </c>
+      <c r="O33" s="6">
         <v>-2.8906930000000002</v>
       </c>
-      <c r="P33" s="8">
+      <c r="P33" s="6">
         <v>32.283157000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="12">
         <v>43151</v>
       </c>
-      <c r="F34" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G34" s="5" t="s">
+      <c r="F34" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H34" s="5">
+      <c r="H34" s="4">
         <v>4</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="5">
         <v>2</v>
       </c>
-      <c r="J34" s="7">
+      <c r="J34" s="5">
         <v>33</v>
       </c>
-      <c r="K34" s="9">
-        <v>0</v>
-      </c>
-      <c r="L34" s="7">
+      <c r="K34" s="7">
+        <v>0</v>
+      </c>
+      <c r="L34" s="5">
         <v>2</v>
       </c>
-      <c r="M34" s="10">
-        <v>0</v>
-      </c>
-      <c r="N34" s="7">
+      <c r="M34" s="8">
+        <v>0</v>
+      </c>
+      <c r="N34" s="5">
         <v>11</v>
       </c>
-      <c r="O34" s="8">
+      <c r="O34" s="6">
         <v>-5.5725100000000003</v>
       </c>
-      <c r="P34" s="8">
+      <c r="P34" s="6">
         <v>37.289540000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="12">
         <v>43230</v>
       </c>
-      <c r="F35" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H35" s="5">
-        <v>1</v>
-      </c>
-      <c r="I35" s="7">
-        <v>1</v>
-      </c>
-      <c r="J35" s="7">
+      <c r="F35" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" s="4">
+        <v>1</v>
+      </c>
+      <c r="I35" s="5">
+        <v>1</v>
+      </c>
+      <c r="J35" s="5">
         <v>162</v>
       </c>
-      <c r="K35" s="9">
-        <v>0</v>
-      </c>
-      <c r="L35" s="7">
-        <v>0</v>
-      </c>
-      <c r="M35" s="10">
-        <v>0</v>
-      </c>
-      <c r="N35" s="7">
-        <v>0</v>
-      </c>
-      <c r="O35" s="8">
+      <c r="K35" s="7">
+        <v>0</v>
+      </c>
+      <c r="L35" s="5">
+        <v>0</v>
+      </c>
+      <c r="M35" s="8">
+        <v>0</v>
+      </c>
+      <c r="N35" s="5">
+        <v>0</v>
+      </c>
+      <c r="O35" s="6">
         <v>-2.0231400000000002</v>
       </c>
-      <c r="P35" s="8">
+      <c r="P35" s="6">
         <v>33.861808000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="12">
         <v>43255</v>
       </c>
-      <c r="F36" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" s="5" t="s">
+      <c r="F36" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H36" s="5">
-        <v>1</v>
-      </c>
-      <c r="I36" s="7">
-        <v>0</v>
-      </c>
-      <c r="J36" s="7">
+      <c r="H36" s="4">
+        <v>1</v>
+      </c>
+      <c r="I36" s="5">
+        <v>0</v>
+      </c>
+      <c r="J36" s="5">
         <v>96</v>
       </c>
-      <c r="K36" s="9">
-        <v>0</v>
-      </c>
-      <c r="L36" s="7">
-        <v>1</v>
-      </c>
-      <c r="M36" s="10">
-        <v>0</v>
-      </c>
-      <c r="N36" s="7">
-        <v>0</v>
-      </c>
-      <c r="O36" s="8">
+      <c r="K36" s="7">
+        <v>0</v>
+      </c>
+      <c r="L36" s="5">
+        <v>1</v>
+      </c>
+      <c r="M36" s="8">
+        <v>0</v>
+      </c>
+      <c r="N36" s="5">
+        <v>0</v>
+      </c>
+      <c r="O36" s="6">
         <v>-3.291382</v>
       </c>
-      <c r="P36" s="8">
+      <c r="P36" s="6">
         <v>36.675468000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="12">
         <v>43287</v>
       </c>
-      <c r="F37" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H37" s="5">
-        <v>1</v>
-      </c>
-      <c r="I37" s="7">
-        <v>1</v>
-      </c>
-      <c r="J37" s="7">
+      <c r="F37" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" s="4">
+        <v>1</v>
+      </c>
+      <c r="I37" s="5">
+        <v>1</v>
+      </c>
+      <c r="J37" s="5">
         <v>135</v>
       </c>
-      <c r="K37" s="9">
-        <v>0</v>
-      </c>
-      <c r="L37" s="7">
-        <v>1</v>
-      </c>
-      <c r="M37" s="7">
-        <v>0</v>
-      </c>
-      <c r="N37" s="7">
-        <v>0</v>
-      </c>
-      <c r="O37" s="8">
+      <c r="K37" s="7">
+        <v>0</v>
+      </c>
+      <c r="L37" s="5">
+        <v>1</v>
+      </c>
+      <c r="M37" s="5">
+        <v>0</v>
+      </c>
+      <c r="N37" s="5">
+        <v>0</v>
+      </c>
+      <c r="O37" s="6">
         <v>-3.363127</v>
       </c>
-      <c r="P37" s="8">
+      <c r="P37" s="6">
         <v>36.709449999999997</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="12">
         <v>43326</v>
       </c>
-      <c r="F38" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H38" s="5">
+      <c r="F38" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" s="4">
         <v>4</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I38" s="5">
         <v>2</v>
       </c>
-      <c r="J38" s="7">
+      <c r="J38" s="5">
         <v>123</v>
       </c>
-      <c r="K38" s="9">
-        <v>0</v>
-      </c>
-      <c r="L38" s="7">
+      <c r="K38" s="7">
+        <v>0</v>
+      </c>
+      <c r="L38" s="5">
         <v>2</v>
       </c>
-      <c r="M38" s="7">
-        <v>0</v>
-      </c>
-      <c r="N38" s="7">
+      <c r="M38" s="5">
+        <v>0</v>
+      </c>
+      <c r="N38" s="5">
         <v>105</v>
       </c>
-      <c r="O38" s="8">
+      <c r="O38" s="6">
         <v>-5.1836630000000001</v>
       </c>
-      <c r="P38" s="8">
+      <c r="P38" s="6">
         <v>38.792712999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="12">
         <v>43326</v>
       </c>
-      <c r="F39" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" s="5" t="s">
+      <c r="F39" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H39" s="5">
-        <v>1</v>
-      </c>
-      <c r="I39" s="7">
-        <v>0</v>
-      </c>
-      <c r="J39" s="7">
+      <c r="H39" s="4">
+        <v>1</v>
+      </c>
+      <c r="I39" s="5">
+        <v>0</v>
+      </c>
+      <c r="J39" s="5">
         <v>1104</v>
       </c>
-      <c r="K39" s="9">
-        <v>0</v>
-      </c>
-      <c r="L39" s="7">
-        <v>0</v>
-      </c>
-      <c r="M39" s="7">
-        <v>0</v>
-      </c>
-      <c r="N39" s="7">
-        <v>0</v>
-      </c>
-      <c r="O39" s="8">
+      <c r="K39" s="7">
+        <v>0</v>
+      </c>
+      <c r="L39" s="5">
+        <v>0</v>
+      </c>
+      <c r="M39" s="5">
+        <v>0</v>
+      </c>
+      <c r="N39" s="5">
+        <v>0</v>
+      </c>
+      <c r="O39" s="6">
         <v>-3.3194279999999998</v>
       </c>
-      <c r="P39" s="8">
+      <c r="P39" s="6">
         <v>36.636612999999997</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="12">
         <v>43328</v>
       </c>
-      <c r="F40" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H40" s="5">
+      <c r="F40" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H40" s="4">
         <v>3</v>
       </c>
-      <c r="I40" s="7">
-        <v>0</v>
-      </c>
-      <c r="J40" s="7">
+      <c r="I40" s="5">
+        <v>0</v>
+      </c>
+      <c r="J40" s="5">
         <v>69</v>
       </c>
-      <c r="K40" s="9">
-        <v>0</v>
-      </c>
-      <c r="L40" s="7">
+      <c r="K40" s="7">
+        <v>0</v>
+      </c>
+      <c r="L40" s="5">
         <v>4</v>
       </c>
-      <c r="M40" s="7">
-        <v>0</v>
-      </c>
-      <c r="N40" s="7">
+      <c r="M40" s="5">
+        <v>0</v>
+      </c>
+      <c r="N40" s="5">
         <v>50</v>
       </c>
-      <c r="O40" s="8">
+      <c r="O40" s="6">
         <v>-5.185073</v>
       </c>
-      <c r="P40" s="8">
+      <c r="P40" s="6">
         <v>38.783496999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="12">
         <v>43338</v>
       </c>
-      <c r="F41" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" s="5" t="s">
+      <c r="F41" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H41" s="5">
+      <c r="H41" s="4">
         <v>2</v>
       </c>
-      <c r="I41" s="7">
-        <v>0</v>
-      </c>
-      <c r="J41" s="7">
+      <c r="I41" s="5">
+        <v>0</v>
+      </c>
+      <c r="J41" s="5">
         <v>58</v>
       </c>
-      <c r="K41" s="9">
-        <v>0</v>
-      </c>
-      <c r="L41" s="7">
-        <v>1</v>
-      </c>
-      <c r="M41" s="7">
-        <v>0</v>
-      </c>
-      <c r="N41" s="7">
-        <v>0</v>
-      </c>
-      <c r="O41" s="8">
+      <c r="K41" s="7">
+        <v>0</v>
+      </c>
+      <c r="L41" s="5">
+        <v>1</v>
+      </c>
+      <c r="M41" s="5">
+        <v>0</v>
+      </c>
+      <c r="N41" s="5">
+        <v>0</v>
+      </c>
+      <c r="O41" s="6">
         <v>-6.1314640000000002</v>
       </c>
-      <c r="P41" s="8">
+      <c r="P41" s="6">
         <v>35.736801</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="12">
         <v>43356</v>
       </c>
-      <c r="F42" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H42" s="5">
-        <v>1</v>
-      </c>
-      <c r="I42" s="7">
-        <v>0</v>
-      </c>
-      <c r="J42" s="7">
+      <c r="F42" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H42" s="4">
+        <v>1</v>
+      </c>
+      <c r="I42" s="5">
+        <v>0</v>
+      </c>
+      <c r="J42" s="5">
         <v>314</v>
       </c>
-      <c r="K42" s="9">
-        <v>0</v>
-      </c>
-      <c r="L42" s="7">
-        <v>1</v>
-      </c>
-      <c r="M42" s="7">
-        <v>0</v>
-      </c>
-      <c r="N42" s="7">
-        <v>0</v>
-      </c>
-      <c r="O42" s="8">
+      <c r="K42" s="7">
+        <v>0</v>
+      </c>
+      <c r="L42" s="5">
+        <v>1</v>
+      </c>
+      <c r="M42" s="5">
+        <v>0</v>
+      </c>
+      <c r="N42" s="5">
+        <v>0</v>
+      </c>
+      <c r="O42" s="6">
         <v>-4.0584800000000003</v>
       </c>
-      <c r="P42" s="8">
+      <c r="P42" s="6">
         <v>37.752609999999997</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="12">
         <v>43361</v>
       </c>
-      <c r="F43" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H43" s="5">
-        <v>1</v>
-      </c>
-      <c r="I43" s="7">
-        <v>0</v>
-      </c>
-      <c r="J43" s="7">
+      <c r="F43" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H43" s="4">
+        <v>1</v>
+      </c>
+      <c r="I43" s="5">
+        <v>0</v>
+      </c>
+      <c r="J43" s="5">
         <v>53</v>
       </c>
-      <c r="K43" s="9">
-        <v>0</v>
-      </c>
-      <c r="L43" s="7">
-        <v>0</v>
-      </c>
-      <c r="M43" s="7">
-        <v>0</v>
-      </c>
-      <c r="N43" s="7">
-        <v>0</v>
-      </c>
-      <c r="O43" s="8">
+      <c r="K43" s="7">
+        <v>0</v>
+      </c>
+      <c r="L43" s="5">
+        <v>0</v>
+      </c>
+      <c r="M43" s="5">
+        <v>0</v>
+      </c>
+      <c r="N43" s="5">
+        <v>0</v>
+      </c>
+      <c r="O43" s="6">
         <v>-5.5730380000000004</v>
       </c>
-      <c r="P43" s="8">
+      <c r="P43" s="6">
         <v>37.289602000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="12">
         <v>43367</v>
       </c>
-      <c r="F44" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H44" s="5">
-        <v>1</v>
-      </c>
-      <c r="I44" s="7">
-        <v>0</v>
-      </c>
-      <c r="J44" s="7">
+      <c r="F44" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H44" s="4">
+        <v>1</v>
+      </c>
+      <c r="I44" s="5">
+        <v>0</v>
+      </c>
+      <c r="J44" s="5">
         <v>80</v>
       </c>
-      <c r="K44" s="9">
-        <v>0</v>
-      </c>
-      <c r="L44" s="7">
-        <v>1</v>
-      </c>
-      <c r="M44" s="7">
-        <v>0</v>
-      </c>
-      <c r="N44" s="7">
-        <v>0</v>
-      </c>
-      <c r="O44" s="8">
+      <c r="K44" s="7">
+        <v>0</v>
+      </c>
+      <c r="L44" s="5">
+        <v>1</v>
+      </c>
+      <c r="M44" s="5">
+        <v>0</v>
+      </c>
+      <c r="N44" s="5">
+        <v>0</v>
+      </c>
+      <c r="O44" s="6">
         <v>-4.9023430000000001</v>
       </c>
-      <c r="P44" s="8">
+      <c r="P44" s="6">
         <v>35.801437</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="12">
         <v>43378</v>
       </c>
-      <c r="F45" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G45" s="5" t="s">
+      <c r="F45" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H45" s="5">
-        <v>1</v>
-      </c>
-      <c r="I45" s="7">
-        <v>1</v>
-      </c>
-      <c r="J45" s="7">
-        <v>1</v>
-      </c>
-      <c r="K45" s="9">
-        <v>0</v>
-      </c>
-      <c r="L45" s="7">
-        <v>0</v>
-      </c>
-      <c r="M45" s="7">
-        <v>0</v>
-      </c>
-      <c r="N45" s="7">
-        <v>0</v>
-      </c>
-      <c r="O45" s="8">
+      <c r="H45" s="4">
+        <v>1</v>
+      </c>
+      <c r="I45" s="5">
+        <v>1</v>
+      </c>
+      <c r="J45" s="5">
+        <v>1</v>
+      </c>
+      <c r="K45" s="7">
+        <v>0</v>
+      </c>
+      <c r="L45" s="5">
+        <v>0</v>
+      </c>
+      <c r="M45" s="5">
+        <v>0</v>
+      </c>
+      <c r="N45" s="5">
+        <v>0</v>
+      </c>
+      <c r="O45" s="6">
         <v>-4.2798049999999996</v>
       </c>
-      <c r="P45" s="8">
+      <c r="P45" s="6">
         <v>34.410567</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E46" s="12">
         <v>43417</v>
       </c>
-      <c r="F46" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G46" s="5" t="s">
+      <c r="F46" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G46" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H46" s="5">
-        <v>1</v>
-      </c>
-      <c r="I46" s="7">
-        <v>1</v>
-      </c>
-      <c r="J46" s="7">
+      <c r="H46" s="4">
+        <v>1</v>
+      </c>
+      <c r="I46" s="5">
+        <v>1</v>
+      </c>
+      <c r="J46" s="5">
         <v>20</v>
       </c>
-      <c r="K46" s="9">
-        <v>0</v>
-      </c>
-      <c r="L46" s="7">
-        <v>1</v>
-      </c>
-      <c r="M46" s="7">
-        <v>0</v>
-      </c>
-      <c r="N46" s="7">
-        <v>0</v>
-      </c>
-      <c r="O46" s="8">
+      <c r="K46" s="7">
+        <v>0</v>
+      </c>
+      <c r="L46" s="5">
+        <v>1</v>
+      </c>
+      <c r="M46" s="5">
+        <v>0</v>
+      </c>
+      <c r="N46" s="5">
+        <v>0</v>
+      </c>
+      <c r="O46" s="6">
         <v>-7.0005369999999996</v>
       </c>
-      <c r="P46" s="8">
+      <c r="P46" s="6">
         <v>39.522843999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E47" s="12">
         <v>43467</v>
       </c>
-      <c r="F47" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G47" s="5" t="s">
+      <c r="F47" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H47" s="5">
-        <v>1</v>
-      </c>
-      <c r="I47" s="7">
-        <v>0</v>
-      </c>
-      <c r="J47" s="7">
+      <c r="H47" s="4">
+        <v>1</v>
+      </c>
+      <c r="I47" s="5">
+        <v>0</v>
+      </c>
+      <c r="J47" s="5">
         <v>250</v>
       </c>
-      <c r="K47" s="5"/>
-      <c r="L47" s="7">
-        <v>1</v>
-      </c>
-      <c r="M47" s="7">
-        <v>0</v>
-      </c>
-      <c r="N47" s="7">
-        <v>0</v>
-      </c>
-      <c r="O47" s="8">
+      <c r="K47" s="4"/>
+      <c r="L47" s="5">
+        <v>1</v>
+      </c>
+      <c r="M47" s="5">
+        <v>0</v>
+      </c>
+      <c r="N47" s="5">
+        <v>0</v>
+      </c>
+      <c r="O47" s="6">
         <v>-2.4533179999999999</v>
       </c>
-      <c r="P47" s="8">
+      <c r="P47" s="6">
         <v>32.911231999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48" s="12">
         <v>43486</v>
       </c>
-      <c r="F48" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H48" s="5">
-        <v>1</v>
-      </c>
-      <c r="I48" s="7">
-        <v>1</v>
-      </c>
-      <c r="J48" s="7">
+      <c r="F48" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H48" s="4">
+        <v>1</v>
+      </c>
+      <c r="I48" s="5">
+        <v>1</v>
+      </c>
+      <c r="J48" s="5">
         <v>82</v>
       </c>
-      <c r="K48" s="5"/>
-      <c r="L48" s="7">
-        <v>1</v>
-      </c>
-      <c r="M48" s="7">
-        <v>0</v>
-      </c>
-      <c r="N48" s="7">
-        <v>17</v>
-      </c>
-      <c r="O48" s="8">
+      <c r="K48" s="4"/>
+      <c r="L48" s="5">
+        <v>1</v>
+      </c>
+      <c r="M48" s="5">
+        <v>0</v>
+      </c>
+      <c r="N48" s="5">
+        <v>17</v>
+      </c>
+      <c r="O48" s="6">
         <v>-3.194922</v>
       </c>
-      <c r="P48" s="8">
+      <c r="P48" s="6">
         <v>33.786512999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E49" s="12">
         <v>43491</v>
       </c>
-      <c r="F49" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G49" s="5" t="s">
+      <c r="F49" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G49" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="H49" s="5">
+      <c r="H49" s="4">
         <v>2</v>
       </c>
-      <c r="I49" s="7">
+      <c r="I49" s="5">
         <v>2</v>
       </c>
-      <c r="J49" s="7">
+      <c r="J49" s="5">
         <v>250</v>
       </c>
-      <c r="K49" s="5"/>
-      <c r="L49" s="7">
+      <c r="K49" s="4"/>
+      <c r="L49" s="5">
         <v>2</v>
       </c>
-      <c r="M49" s="7">
-        <v>0</v>
-      </c>
-      <c r="N49" s="7">
-        <v>0</v>
-      </c>
-      <c r="O49" s="8">
+      <c r="M49" s="5">
+        <v>0</v>
+      </c>
+      <c r="N49" s="5">
+        <v>0</v>
+      </c>
+      <c r="O49" s="6">
         <v>-8.3057280000000002</v>
       </c>
-      <c r="P49" s="8">
+      <c r="P49" s="6">
         <v>31.527187000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50" s="12">
         <v>43515</v>
       </c>
-      <c r="F50" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H50" s="5">
-        <v>1</v>
-      </c>
-      <c r="I50" s="7">
-        <v>0</v>
-      </c>
-      <c r="J50" s="7">
-        <v>1</v>
-      </c>
-      <c r="K50" s="5"/>
-      <c r="L50" s="7">
-        <v>1</v>
-      </c>
-      <c r="M50" s="7">
-        <v>0</v>
-      </c>
-      <c r="N50" s="7">
-        <v>0</v>
-      </c>
-      <c r="O50" s="8">
+      <c r="F50" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H50" s="4">
+        <v>1</v>
+      </c>
+      <c r="I50" s="5">
+        <v>0</v>
+      </c>
+      <c r="J50" s="5">
+        <v>1</v>
+      </c>
+      <c r="K50" s="4"/>
+      <c r="L50" s="5">
+        <v>1</v>
+      </c>
+      <c r="M50" s="5">
+        <v>0</v>
+      </c>
+      <c r="N50" s="5">
+        <v>0</v>
+      </c>
+      <c r="O50" s="6">
         <v>-4.5593300000000001</v>
       </c>
-      <c r="P50" s="8">
+      <c r="P50" s="6">
         <v>30.111338</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51" s="12">
         <v>43556</v>
       </c>
-      <c r="F51" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H51" s="5">
+      <c r="F51" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H51" s="4">
         <v>7</v>
       </c>
-      <c r="I51" s="7">
+      <c r="I51" s="5">
         <v>7</v>
       </c>
-      <c r="J51" s="7">
+      <c r="J51" s="5">
         <v>7000</v>
       </c>
-      <c r="K51" s="5"/>
-      <c r="L51" s="7">
-        <v>0</v>
-      </c>
-      <c r="M51" s="7">
-        <v>0</v>
-      </c>
-      <c r="N51" s="7">
-        <v>0</v>
-      </c>
-      <c r="O51" s="8">
+      <c r="K51" s="4"/>
+      <c r="L51" s="5">
+        <v>0</v>
+      </c>
+      <c r="M51" s="5">
+        <v>0</v>
+      </c>
+      <c r="N51" s="5">
+        <v>0</v>
+      </c>
+      <c r="O51" s="6">
         <v>-8.2523479999999996</v>
       </c>
-      <c r="P51" s="8">
+      <c r="P51" s="6">
         <v>36.186768999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D52" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E52" s="12">
         <v>43562</v>
       </c>
-      <c r="F52" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H52" s="5">
-        <v>1</v>
-      </c>
-      <c r="I52" s="7">
-        <v>1</v>
-      </c>
-      <c r="J52" s="7">
-        <v>0</v>
-      </c>
-      <c r="K52" s="5"/>
-      <c r="L52" s="7">
-        <v>0</v>
-      </c>
-      <c r="M52" s="7">
-        <v>0</v>
-      </c>
-      <c r="N52" s="7">
-        <v>0</v>
-      </c>
-      <c r="O52" s="8">
+      <c r="F52" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52" s="4">
+        <v>1</v>
+      </c>
+      <c r="I52" s="5">
+        <v>1</v>
+      </c>
+      <c r="J52" s="5">
+        <v>0</v>
+      </c>
+      <c r="K52" s="4"/>
+      <c r="L52" s="5">
+        <v>0</v>
+      </c>
+      <c r="M52" s="5">
+        <v>0</v>
+      </c>
+      <c r="N52" s="5">
+        <v>0</v>
+      </c>
+      <c r="O52" s="6">
         <v>-4.2142780000000002</v>
       </c>
-      <c r="P52" s="8">
+      <c r="P52" s="6">
         <v>33.180383999999997</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E53" s="12">
         <v>43562</v>
       </c>
-      <c r="F53" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H53" s="5">
-        <v>1</v>
-      </c>
-      <c r="I53" s="7">
-        <v>1</v>
-      </c>
-      <c r="J53" s="7">
-        <v>0</v>
-      </c>
-      <c r="K53" s="5"/>
-      <c r="L53" s="7">
-        <v>0</v>
-      </c>
-      <c r="M53" s="7">
-        <v>0</v>
-      </c>
-      <c r="N53" s="7">
-        <v>0</v>
-      </c>
-      <c r="O53" s="8">
+      <c r="F53" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H53" s="4">
+        <v>1</v>
+      </c>
+      <c r="I53" s="5">
+        <v>1</v>
+      </c>
+      <c r="J53" s="5">
+        <v>0</v>
+      </c>
+      <c r="K53" s="4"/>
+      <c r="L53" s="5">
+        <v>0</v>
+      </c>
+      <c r="M53" s="5">
+        <v>0</v>
+      </c>
+      <c r="N53" s="5">
+        <v>0</v>
+      </c>
+      <c r="O53" s="6">
         <v>-4.2142780000000002</v>
       </c>
-      <c r="P53" s="8">
+      <c r="P53" s="6">
         <v>33.180383999999997</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E54" s="12">
         <v>43578</v>
       </c>
-      <c r="F54" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H54" s="5">
-        <v>1</v>
-      </c>
-      <c r="I54" s="7">
-        <v>1</v>
-      </c>
-      <c r="J54" s="7">
+      <c r="F54" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54" s="4">
+        <v>1</v>
+      </c>
+      <c r="I54" s="5">
+        <v>1</v>
+      </c>
+      <c r="J54" s="5">
         <v>7</v>
       </c>
-      <c r="K54" s="5"/>
-      <c r="L54" s="7">
-        <v>1</v>
-      </c>
-      <c r="M54" s="7">
-        <v>0</v>
-      </c>
-      <c r="N54" s="7">
-        <v>0</v>
-      </c>
-      <c r="O54" s="8">
+      <c r="K54" s="4"/>
+      <c r="L54" s="5">
+        <v>1</v>
+      </c>
+      <c r="M54" s="5">
+        <v>0</v>
+      </c>
+      <c r="N54" s="5">
+        <v>0</v>
+      </c>
+      <c r="O54" s="6">
         <v>-5.5726950000000004</v>
       </c>
-      <c r="P54" s="8">
+      <c r="P54" s="6">
         <v>37.289766999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D55" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E55" s="12">
         <v>43666</v>
       </c>
-      <c r="F55" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H55" s="5">
-        <v>1</v>
-      </c>
-      <c r="I55" s="7">
-        <v>0</v>
-      </c>
-      <c r="J55" s="7">
+      <c r="F55" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H55" s="4">
+        <v>1</v>
+      </c>
+      <c r="I55" s="5">
+        <v>0</v>
+      </c>
+      <c r="J55" s="5">
         <v>320</v>
       </c>
-      <c r="K55" s="5"/>
-      <c r="L55" s="7">
-        <v>1</v>
-      </c>
-      <c r="M55" s="7">
-        <v>0</v>
-      </c>
-      <c r="N55" s="7">
+      <c r="K55" s="4"/>
+      <c r="L55" s="5">
+        <v>1</v>
+      </c>
+      <c r="M55" s="5">
+        <v>0</v>
+      </c>
+      <c r="N55" s="5">
         <v>241</v>
       </c>
-      <c r="O55" s="8">
+      <c r="O55" s="6">
         <v>-8.5366</v>
       </c>
-      <c r="P55" s="8">
+      <c r="P55" s="6">
         <v>33.429690999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E56" s="12">
         <v>43666</v>
       </c>
-      <c r="F56" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H56" s="5">
-        <v>1</v>
-      </c>
-      <c r="I56" s="7">
-        <v>0</v>
-      </c>
-      <c r="J56" s="7">
+      <c r="F56" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H56" s="4">
+        <v>1</v>
+      </c>
+      <c r="I56" s="5">
+        <v>0</v>
+      </c>
+      <c r="J56" s="5">
         <v>320</v>
       </c>
-      <c r="K56" s="5"/>
-      <c r="L56" s="7">
-        <v>1</v>
-      </c>
-      <c r="M56" s="7">
-        <v>0</v>
-      </c>
-      <c r="N56" s="7">
+      <c r="K56" s="4"/>
+      <c r="L56" s="5">
+        <v>1</v>
+      </c>
+      <c r="M56" s="5">
+        <v>0</v>
+      </c>
+      <c r="N56" s="5">
         <v>241</v>
       </c>
-      <c r="O56" s="8">
+      <c r="O56" s="6">
         <v>-8.5366</v>
       </c>
-      <c r="P56" s="8">
+      <c r="P56" s="6">
         <v>33.429690999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E57" s="6">
+      <c r="E57" s="12">
         <v>43670</v>
       </c>
-      <c r="F57" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G57" s="5" t="s">
+      <c r="F57" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G57" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H57" s="5">
-        <v>1</v>
-      </c>
-      <c r="I57" s="7">
-        <v>1</v>
-      </c>
-      <c r="J57" s="7">
+      <c r="H57" s="4">
+        <v>1</v>
+      </c>
+      <c r="I57" s="5">
+        <v>1</v>
+      </c>
+      <c r="J57" s="5">
         <v>2</v>
       </c>
-      <c r="K57" s="5"/>
-      <c r="L57" s="7">
-        <v>1</v>
-      </c>
-      <c r="M57" s="7">
-        <v>0</v>
-      </c>
-      <c r="N57" s="7">
+      <c r="K57" s="4"/>
+      <c r="L57" s="5">
+        <v>1</v>
+      </c>
+      <c r="M57" s="5">
+        <v>0</v>
+      </c>
+      <c r="N57" s="5">
         <v>2</v>
       </c>
-      <c r="O57" s="8">
+      <c r="O57" s="6">
         <v>-3.1579999999999999</v>
       </c>
-      <c r="P57" s="8">
+      <c r="P57" s="6">
         <v>37.124723000000003</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D58" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E58" s="12">
         <v>43689</v>
       </c>
-      <c r="F58" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H58" s="5">
+      <c r="F58" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H58" s="4">
         <v>3</v>
       </c>
-      <c r="I58" s="7">
-        <v>0</v>
-      </c>
-      <c r="J58" s="7">
+      <c r="I58" s="5">
+        <v>0</v>
+      </c>
+      <c r="J58" s="5">
         <v>125</v>
       </c>
-      <c r="K58" s="5"/>
-      <c r="L58" s="7">
-        <v>0</v>
-      </c>
-      <c r="M58" s="7">
-        <v>0</v>
-      </c>
-      <c r="N58" s="7">
-        <v>0</v>
-      </c>
-      <c r="O58" s="8">
+      <c r="K58" s="4"/>
+      <c r="L58" s="5">
+        <v>0</v>
+      </c>
+      <c r="M58" s="5">
+        <v>0</v>
+      </c>
+      <c r="N58" s="5">
+        <v>0</v>
+      </c>
+      <c r="O58" s="6">
         <v>-11.048297</v>
       </c>
-      <c r="P58" s="8">
+      <c r="P58" s="6">
         <v>37.342269999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D59" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E59" s="6">
+      <c r="E59" s="12">
         <v>43693</v>
       </c>
-      <c r="F59" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G59" s="5" t="s">
+      <c r="F59" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G59" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="H59" s="5">
-        <v>1</v>
-      </c>
-      <c r="I59" s="7">
-        <v>0</v>
-      </c>
-      <c r="J59" s="7">
+      <c r="H59" s="4">
+        <v>1</v>
+      </c>
+      <c r="I59" s="5">
+        <v>0</v>
+      </c>
+      <c r="J59" s="5">
         <v>5</v>
       </c>
-      <c r="K59" s="5"/>
-      <c r="L59" s="7">
-        <v>0</v>
-      </c>
-      <c r="M59" s="7">
-        <v>0</v>
-      </c>
-      <c r="N59" s="7">
-        <v>0</v>
-      </c>
-      <c r="O59" s="8">
+      <c r="K59" s="4"/>
+      <c r="L59" s="5">
+        <v>0</v>
+      </c>
+      <c r="M59" s="5">
+        <v>0</v>
+      </c>
+      <c r="N59" s="5">
+        <v>0</v>
+      </c>
+      <c r="O59" s="6">
         <v>-3.581817</v>
       </c>
-      <c r="P59" s="8">
+      <c r="P59" s="6">
         <v>30.712530999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E60" s="12">
         <v>43707</v>
       </c>
-      <c r="F60" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H60" s="5">
-        <v>1</v>
-      </c>
-      <c r="I60" s="7">
-        <v>0</v>
-      </c>
-      <c r="J60" s="7">
+      <c r="F60" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H60" s="4">
+        <v>1</v>
+      </c>
+      <c r="I60" s="5">
+        <v>0</v>
+      </c>
+      <c r="J60" s="5">
         <v>2</v>
       </c>
-      <c r="K60" s="5"/>
-      <c r="L60" s="7">
-        <v>0</v>
-      </c>
-      <c r="M60" s="7">
-        <v>0</v>
-      </c>
-      <c r="N60" s="7">
-        <v>0</v>
-      </c>
-      <c r="O60" s="8">
+      <c r="K60" s="4"/>
+      <c r="L60" s="5">
+        <v>0</v>
+      </c>
+      <c r="M60" s="5">
+        <v>0</v>
+      </c>
+      <c r="N60" s="5">
+        <v>0</v>
+      </c>
+      <c r="O60" s="6">
         <v>-2.372255</v>
       </c>
-      <c r="P60" s="8">
+      <c r="P60" s="6">
         <v>33.578181999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D61" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E61" s="6">
+      <c r="E61" s="12">
         <v>43731</v>
       </c>
-      <c r="F61" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G61" s="5" t="s">
+      <c r="F61" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G61" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H61" s="5">
-        <v>1</v>
-      </c>
-      <c r="I61" s="7">
-        <v>1</v>
-      </c>
-      <c r="J61" s="7">
+      <c r="H61" s="4">
+        <v>1</v>
+      </c>
+      <c r="I61" s="5">
+        <v>1</v>
+      </c>
+      <c r="J61" s="5">
         <v>45</v>
       </c>
-      <c r="K61" s="5"/>
-      <c r="L61" s="7">
-        <v>0</v>
-      </c>
-      <c r="M61" s="7">
-        <v>0</v>
-      </c>
-      <c r="N61" s="7">
-        <v>0</v>
-      </c>
-      <c r="O61" s="8">
+      <c r="K61" s="4"/>
+      <c r="L61" s="5">
+        <v>0</v>
+      </c>
+      <c r="M61" s="5">
+        <v>0</v>
+      </c>
+      <c r="N61" s="5">
+        <v>0</v>
+      </c>
+      <c r="O61" s="6">
         <v>-4.5211059999999996</v>
       </c>
-      <c r="P61" s="8">
+      <c r="P61" s="6">
         <v>35.382434000000003</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D62" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E62" s="6">
+      <c r="E62" s="12">
         <v>43738</v>
       </c>
-      <c r="F62" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G62" s="5" t="s">
+      <c r="F62" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G62" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="H62" s="5">
+      <c r="H62" s="4">
         <v>4</v>
       </c>
-      <c r="I62" s="7">
+      <c r="I62" s="5">
         <v>3</v>
       </c>
-      <c r="J62" s="7">
+      <c r="J62" s="5">
         <v>134</v>
       </c>
-      <c r="K62" s="5"/>
-      <c r="L62" s="7">
+      <c r="K62" s="4"/>
+      <c r="L62" s="5">
         <v>4</v>
       </c>
-      <c r="M62" s="7">
-        <v>0</v>
-      </c>
-      <c r="N62" s="7">
-        <v>0</v>
-      </c>
-      <c r="O62" s="8">
+      <c r="M62" s="5">
+        <v>0</v>
+      </c>
+      <c r="N62" s="5">
+        <v>0</v>
+      </c>
+      <c r="O62" s="6">
         <v>-11.052213999999999</v>
       </c>
-      <c r="P62" s="8">
+      <c r="P62" s="6">
         <v>37.340727999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D63" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E63" s="6">
+      <c r="E63" s="12">
         <v>43785</v>
       </c>
-      <c r="F63" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H63" s="5">
+      <c r="F63" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H63" s="4">
         <v>2</v>
       </c>
-      <c r="I63" s="7">
+      <c r="I63" s="5">
         <v>2</v>
       </c>
-      <c r="J63" s="7">
+      <c r="J63" s="5">
         <v>5</v>
       </c>
-      <c r="K63" s="5"/>
-      <c r="L63" s="7">
-        <v>0</v>
-      </c>
-      <c r="M63" s="7">
-        <v>0</v>
-      </c>
-      <c r="N63" s="7">
-        <v>0</v>
-      </c>
-      <c r="O63" s="8">
+      <c r="K63" s="4"/>
+      <c r="L63" s="5">
+        <v>0</v>
+      </c>
+      <c r="M63" s="5">
+        <v>0</v>
+      </c>
+      <c r="N63" s="5">
+        <v>0</v>
+      </c>
+      <c r="O63" s="6">
         <v>-11.030972999999999</v>
       </c>
-      <c r="P63" s="8">
+      <c r="P63" s="6">
         <v>37.326377999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D64" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E64" s="6">
+      <c r="E64" s="12">
         <v>43813</v>
       </c>
-      <c r="F64" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H64" s="5">
-        <v>1</v>
-      </c>
-      <c r="I64" s="7">
-        <v>0</v>
-      </c>
-      <c r="J64" s="7">
-        <v>1</v>
-      </c>
-      <c r="K64" s="5"/>
-      <c r="L64" s="7">
-        <v>1</v>
-      </c>
-      <c r="M64" s="7">
-        <v>0</v>
-      </c>
-      <c r="N64" s="7">
-        <v>0</v>
-      </c>
-      <c r="O64" s="8">
+      <c r="F64" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H64" s="4">
+        <v>1</v>
+      </c>
+      <c r="I64" s="5">
+        <v>0</v>
+      </c>
+      <c r="J64" s="5">
+        <v>1</v>
+      </c>
+      <c r="K64" s="4"/>
+      <c r="L64" s="5">
+        <v>1</v>
+      </c>
+      <c r="M64" s="5">
+        <v>0</v>
+      </c>
+      <c r="N64" s="5">
+        <v>0</v>
+      </c>
+      <c r="O64" s="6">
         <v>-9.2578344999999995</v>
       </c>
-      <c r="P64" s="8">
+      <c r="P64" s="6">
         <v>34.093295500000004</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D65" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E65" s="11">
+      <c r="E65" s="13">
         <v>44175</v>
       </c>
-      <c r="F65" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G65" s="5" t="s">
+      <c r="F65" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G65" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="H65" s="12">
-        <v>1</v>
-      </c>
-      <c r="I65" s="12">
-        <v>0</v>
-      </c>
-      <c r="J65" s="12">
-        <v>1</v>
-      </c>
-      <c r="K65" s="12">
-        <v>0</v>
-      </c>
-      <c r="L65" s="12">
-        <v>0</v>
-      </c>
-      <c r="M65" s="12">
-        <v>0</v>
-      </c>
-      <c r="N65" s="12">
-        <v>0</v>
-      </c>
-      <c r="O65" s="5" t="s">
+      <c r="H65" s="9">
+        <v>1</v>
+      </c>
+      <c r="I65" s="9">
+        <v>0</v>
+      </c>
+      <c r="J65" s="9">
+        <v>1</v>
+      </c>
+      <c r="K65" s="9">
+        <v>0</v>
+      </c>
+      <c r="L65" s="9">
+        <v>0</v>
+      </c>
+      <c r="M65" s="9">
+        <v>0</v>
+      </c>
+      <c r="N65" s="9">
+        <v>0</v>
+      </c>
+      <c r="O65" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="P65" s="5" t="s">
+      <c r="P65" s="4" t="s">
         <v>124</v>
       </c>
       <c r="Q65" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D66" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E66" s="11">
+      <c r="E66" s="13">
         <v>44161</v>
       </c>
-      <c r="F66" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G66" s="5" t="s">
+      <c r="F66" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G66" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="H66" s="12">
-        <v>1</v>
-      </c>
-      <c r="I66" s="12">
-        <v>1</v>
-      </c>
-      <c r="J66" s="12">
+      <c r="H66" s="9">
+        <v>1</v>
+      </c>
+      <c r="I66" s="9">
+        <v>1</v>
+      </c>
+      <c r="J66" s="9">
         <v>6</v>
       </c>
-      <c r="K66" s="12">
-        <v>0</v>
-      </c>
-      <c r="L66" s="12">
-        <v>0</v>
-      </c>
-      <c r="M66" s="12">
-        <v>0</v>
-      </c>
-      <c r="N66" s="12">
-        <v>0</v>
-      </c>
-      <c r="O66" s="5" t="s">
+      <c r="K66" s="9">
+        <v>0</v>
+      </c>
+      <c r="L66" s="9">
+        <v>0</v>
+      </c>
+      <c r="M66" s="9">
+        <v>0</v>
+      </c>
+      <c r="N66" s="9">
+        <v>0</v>
+      </c>
+      <c r="O66" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="P66" s="5" t="s">
+      <c r="P66" s="4" t="s">
         <v>131</v>
       </c>
       <c r="Q66" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D67" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E67" s="11">
+      <c r="E67" s="13">
         <v>44092</v>
       </c>
-      <c r="F67" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G67" s="5" t="s">
+      <c r="F67" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G67" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H67" s="12">
-        <v>1</v>
-      </c>
-      <c r="I67" s="12">
-        <v>1</v>
-      </c>
-      <c r="J67" s="12">
+      <c r="H67" s="9">
+        <v>1</v>
+      </c>
+      <c r="I67" s="9">
+        <v>1</v>
+      </c>
+      <c r="J67" s="9">
         <v>86</v>
       </c>
-      <c r="K67" s="12">
-        <v>0</v>
-      </c>
-      <c r="L67" s="12">
-        <v>0</v>
-      </c>
-      <c r="M67" s="12">
-        <v>0</v>
-      </c>
-      <c r="N67" s="12">
-        <v>0</v>
-      </c>
-      <c r="O67" s="5" t="s">
+      <c r="K67" s="9">
+        <v>0</v>
+      </c>
+      <c r="L67" s="9">
+        <v>0</v>
+      </c>
+      <c r="M67" s="9">
+        <v>0</v>
+      </c>
+      <c r="N67" s="9">
+        <v>0</v>
+      </c>
+      <c r="O67" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="P67" s="5" t="s">
+      <c r="P67" s="4" t="s">
         <v>134</v>
       </c>
       <c r="Q67" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D68" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E68" s="11">
+      <c r="E68" s="13">
         <v>43972</v>
       </c>
-      <c r="F68" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G68" s="5" t="s">
+      <c r="F68" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G68" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="H68" s="12">
-        <v>1</v>
-      </c>
-      <c r="I68" s="12">
-        <v>0</v>
-      </c>
-      <c r="J68" s="12">
-        <v>0</v>
-      </c>
-      <c r="K68" s="12">
-        <v>0</v>
-      </c>
-      <c r="L68" s="12">
-        <v>0</v>
-      </c>
-      <c r="M68" s="12">
-        <v>0</v>
-      </c>
-      <c r="N68" s="12">
-        <v>0</v>
-      </c>
-      <c r="O68" s="5" t="s">
+      <c r="H68" s="9">
+        <v>1</v>
+      </c>
+      <c r="I68" s="9">
+        <v>0</v>
+      </c>
+      <c r="J68" s="9">
+        <v>0</v>
+      </c>
+      <c r="K68" s="9">
+        <v>0</v>
+      </c>
+      <c r="L68" s="9">
+        <v>0</v>
+      </c>
+      <c r="M68" s="9">
+        <v>0</v>
+      </c>
+      <c r="N68" s="9">
+        <v>0</v>
+      </c>
+      <c r="O68" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="P68" s="5" t="s">
+      <c r="P68" s="4" t="s">
         <v>138</v>
       </c>
       <c r="Q68" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C69" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D69" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E69" s="11">
+      <c r="E69" s="13">
         <v>43964</v>
       </c>
-      <c r="F69" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G69" s="5" t="s">
+      <c r="F69" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G69" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H69" s="12">
-        <v>1</v>
-      </c>
-      <c r="I69" s="12">
-        <v>0</v>
-      </c>
-      <c r="J69" s="12">
+      <c r="H69" s="9">
+        <v>1</v>
+      </c>
+      <c r="I69" s="9">
+        <v>0</v>
+      </c>
+      <c r="J69" s="9">
         <v>2</v>
       </c>
-      <c r="K69" s="12">
-        <v>0</v>
-      </c>
-      <c r="L69" s="12">
-        <v>0</v>
-      </c>
-      <c r="M69" s="12">
-        <v>0</v>
-      </c>
-      <c r="N69" s="12">
-        <v>0</v>
-      </c>
-      <c r="O69" s="5" t="s">
+      <c r="K69" s="9">
+        <v>0</v>
+      </c>
+      <c r="L69" s="9">
+        <v>0</v>
+      </c>
+      <c r="M69" s="9">
+        <v>0</v>
+      </c>
+      <c r="N69" s="9">
+        <v>0</v>
+      </c>
+      <c r="O69" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="P69" s="5" t="s">
+      <c r="P69" s="4" t="s">
         <v>141</v>
       </c>
       <c r="Q69" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C70" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D70" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E70" s="11">
+      <c r="E70" s="13">
         <v>43958</v>
       </c>
-      <c r="F70" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G70" s="5" t="s">
+      <c r="F70" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G70" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="H70" s="12">
+      <c r="H70" s="9">
         <v>4</v>
       </c>
-      <c r="I70" s="12">
-        <v>1</v>
-      </c>
-      <c r="J70" s="12">
+      <c r="I70" s="9">
+        <v>1</v>
+      </c>
+      <c r="J70" s="9">
         <v>104</v>
       </c>
-      <c r="K70" s="12">
-        <v>1</v>
-      </c>
-      <c r="L70" s="12">
-        <v>1</v>
-      </c>
-      <c r="M70" s="12" t="s">
+      <c r="K70" s="9">
+        <v>1</v>
+      </c>
+      <c r="L70" s="9">
+        <v>1</v>
+      </c>
+      <c r="M70" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="N70" s="12" t="s">
+      <c r="N70" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="O70" s="5" t="s">
+      <c r="O70" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="P70" s="5" t="s">
+      <c r="P70" s="4" t="s">
         <v>148</v>
       </c>
       <c r="Q70" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D71" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E71" s="11">
+      <c r="E71" s="13">
         <v>43950</v>
       </c>
-      <c r="F71" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G71" s="5" t="s">
+      <c r="F71" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G71" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="H71" s="12">
+      <c r="H71" s="9">
         <v>6</v>
       </c>
-      <c r="I71" s="12">
-        <v>1</v>
-      </c>
-      <c r="J71" s="12">
+      <c r="I71" s="9">
+        <v>1</v>
+      </c>
+      <c r="J71" s="9">
         <v>53</v>
       </c>
-      <c r="K71" s="12">
-        <v>0</v>
-      </c>
-      <c r="L71" s="12">
-        <v>0</v>
-      </c>
-      <c r="M71" s="12">
-        <v>0</v>
-      </c>
-      <c r="N71" s="12">
+      <c r="K71" s="9">
+        <v>0</v>
+      </c>
+      <c r="L71" s="9">
+        <v>0</v>
+      </c>
+      <c r="M71" s="9">
+        <v>0</v>
+      </c>
+      <c r="N71" s="9">
         <v>12</v>
       </c>
-      <c r="O71" s="5" t="s">
+      <c r="O71" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="P71" s="5" t="s">
+      <c r="P71" s="4" t="s">
         <v>152</v>
       </c>
       <c r="Q71" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C72" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D72" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E72" s="11">
+      <c r="E72" s="13">
         <v>43937</v>
       </c>
-      <c r="F72" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G72" s="5" t="s">
+      <c r="F72" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G72" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="H72" s="12">
+      <c r="H72" s="9">
         <v>2</v>
       </c>
-      <c r="I72" s="12">
-        <v>0</v>
-      </c>
-      <c r="J72" s="12">
-        <v>0</v>
-      </c>
-      <c r="K72" s="12">
+      <c r="I72" s="9">
+        <v>0</v>
+      </c>
+      <c r="J72" s="9">
+        <v>0</v>
+      </c>
+      <c r="K72" s="9">
         <v>2</v>
       </c>
-      <c r="L72" s="12">
+      <c r="L72" s="9">
         <v>2</v>
       </c>
-      <c r="M72" s="12">
-        <v>0</v>
-      </c>
-      <c r="N72" s="12">
-        <v>0</v>
-      </c>
-      <c r="O72" s="5" t="s">
+      <c r="M72" s="9">
+        <v>0</v>
+      </c>
+      <c r="N72" s="9">
+        <v>0</v>
+      </c>
+      <c r="O72" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="P72" s="5" t="s">
+      <c r="P72" s="4" t="s">
         <v>155</v>
       </c>
       <c r="Q72" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="D73" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="E73" s="11">
+      <c r="E73" s="13">
         <v>43933</v>
       </c>
-      <c r="F73" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G73" s="5" t="s">
+      <c r="F73" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G73" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="H73" s="12">
+      <c r="H73" s="9">
         <v>2</v>
       </c>
-      <c r="I73" s="12">
-        <v>1</v>
-      </c>
-      <c r="J73" s="12">
-        <v>0</v>
-      </c>
-      <c r="K73" s="12">
-        <v>0</v>
-      </c>
-      <c r="L73" s="12">
-        <v>0</v>
-      </c>
-      <c r="M73" s="12">
-        <v>0</v>
-      </c>
-      <c r="N73" s="12">
-        <v>0</v>
-      </c>
-      <c r="O73" s="5" t="s">
+      <c r="I73" s="9">
+        <v>1</v>
+      </c>
+      <c r="J73" s="9">
+        <v>0</v>
+      </c>
+      <c r="K73" s="9">
+        <v>0</v>
+      </c>
+      <c r="L73" s="9">
+        <v>0</v>
+      </c>
+      <c r="M73" s="9">
+        <v>0</v>
+      </c>
+      <c r="N73" s="9">
+        <v>0</v>
+      </c>
+      <c r="O73" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="P73" s="5" t="s">
+      <c r="P73" s="4" t="s">
         <v>158</v>
       </c>
       <c r="Q73" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C74" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D74" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="E74" s="11">
+      <c r="E74" s="13">
         <v>43924</v>
       </c>
-      <c r="F74" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G74" s="5" t="s">
+      <c r="F74" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G74" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="H74" s="12">
-        <v>1</v>
-      </c>
-      <c r="I74" s="12">
-        <v>1</v>
-      </c>
-      <c r="J74" s="13" t="s">
+      <c r="H74" s="9">
+        <v>1</v>
+      </c>
+      <c r="I74" s="9">
+        <v>1</v>
+      </c>
+      <c r="J74" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="K74" s="12">
-        <v>1</v>
-      </c>
-      <c r="L74" s="12">
-        <v>1</v>
-      </c>
-      <c r="M74" s="12">
-        <v>0</v>
-      </c>
-      <c r="N74" s="12">
-        <v>0</v>
-      </c>
-      <c r="O74" s="5" t="s">
+      <c r="K74" s="9">
+        <v>1</v>
+      </c>
+      <c r="L74" s="9">
+        <v>1</v>
+      </c>
+      <c r="M74" s="9">
+        <v>0</v>
+      </c>
+      <c r="N74" s="9">
+        <v>0</v>
+      </c>
+      <c r="O74" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="P74" s="5" t="s">
+      <c r="P74" s="4" t="s">
         <v>161</v>
       </c>
       <c r="Q74" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D75" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="E75" s="11">
+      <c r="E75" s="13">
         <v>43907</v>
       </c>
-      <c r="F75" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G75" s="5" t="s">
+      <c r="F75" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G75" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H75" s="12">
+      <c r="H75" s="9">
         <v>3</v>
       </c>
-      <c r="I75" s="12">
-        <v>0</v>
-      </c>
-      <c r="J75" s="12">
+      <c r="I75" s="9">
+        <v>0</v>
+      </c>
+      <c r="J75" s="9">
         <v>110</v>
       </c>
-      <c r="K75" s="12">
+      <c r="K75" s="9">
         <v>3</v>
       </c>
-      <c r="L75" s="12">
+      <c r="L75" s="9">
         <v>3</v>
       </c>
-      <c r="M75" s="12">
-        <v>0</v>
-      </c>
-      <c r="N75" s="12">
+      <c r="M75" s="9">
+        <v>0</v>
+      </c>
+      <c r="N75" s="9">
         <v>67</v>
       </c>
-      <c r="O75" s="5" t="s">
+      <c r="O75" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="P75" s="5" t="s">
+      <c r="P75" s="4" t="s">
         <v>164</v>
       </c>
       <c r="Q75" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C76" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D76" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="E76" s="11">
+      <c r="E76" s="13">
         <v>43906</v>
       </c>
-      <c r="F76" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G76" s="5" t="s">
+      <c r="F76" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G76" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H76" s="12">
-        <v>0</v>
-      </c>
-      <c r="I76" s="12">
-        <v>1</v>
-      </c>
-      <c r="J76" s="12">
-        <v>0</v>
-      </c>
-      <c r="K76" s="12">
-        <v>0</v>
-      </c>
-      <c r="L76" s="12">
-        <v>0</v>
-      </c>
-      <c r="M76" s="12">
-        <v>0</v>
-      </c>
-      <c r="N76" s="12">
-        <v>0</v>
-      </c>
-      <c r="O76" s="5" t="s">
+      <c r="H76" s="9">
+        <v>0</v>
+      </c>
+      <c r="I76" s="9">
+        <v>1</v>
+      </c>
+      <c r="J76" s="9">
+        <v>0</v>
+      </c>
+      <c r="K76" s="9">
+        <v>0</v>
+      </c>
+      <c r="L76" s="9">
+        <v>0</v>
+      </c>
+      <c r="M76" s="9">
+        <v>0</v>
+      </c>
+      <c r="N76" s="9">
+        <v>0</v>
+      </c>
+      <c r="O76" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="P76" s="5" t="s">
+      <c r="P76" s="4" t="s">
         <v>167</v>
       </c>
       <c r="Q76" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C77" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="D77" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="E77" s="11">
+      <c r="E77" s="13">
         <v>43895</v>
       </c>
-      <c r="F77" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G77" s="5" t="s">
+      <c r="F77" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G77" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="H77" s="12">
-        <v>1</v>
-      </c>
-      <c r="I77" s="12">
-        <v>1</v>
-      </c>
-      <c r="J77" s="12">
-        <v>0</v>
-      </c>
-      <c r="K77" s="12">
-        <v>0</v>
-      </c>
-      <c r="L77" s="12">
-        <v>0</v>
-      </c>
-      <c r="M77" s="12">
-        <v>0</v>
-      </c>
-      <c r="N77" s="12">
-        <v>0</v>
-      </c>
-      <c r="O77" s="5" t="s">
+      <c r="H77" s="9">
+        <v>1</v>
+      </c>
+      <c r="I77" s="9">
+        <v>1</v>
+      </c>
+      <c r="J77" s="9">
+        <v>0</v>
+      </c>
+      <c r="K77" s="9">
+        <v>0</v>
+      </c>
+      <c r="L77" s="9">
+        <v>0</v>
+      </c>
+      <c r="M77" s="9">
+        <v>0</v>
+      </c>
+      <c r="N77" s="9">
+        <v>0</v>
+      </c>
+      <c r="O77" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="P77" s="5" t="s">
+      <c r="P77" s="4" t="s">
         <v>170</v>
       </c>
       <c r="Q77" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C78" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="D78" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="E78" s="11">
+      <c r="E78" s="13">
         <v>43874</v>
       </c>
-      <c r="F78" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G78" s="5" t="s">
+      <c r="F78" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G78" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="H78" s="12">
+      <c r="H78" s="9">
         <v>2</v>
       </c>
-      <c r="I78" s="12">
+      <c r="I78" s="9">
         <v>2</v>
       </c>
-      <c r="J78" s="12">
+      <c r="J78" s="9">
         <v>250</v>
       </c>
-      <c r="K78" s="12">
-        <v>0</v>
-      </c>
-      <c r="L78" s="12">
-        <v>0</v>
-      </c>
-      <c r="M78" s="12">
-        <v>0</v>
-      </c>
-      <c r="N78" s="12">
-        <v>0</v>
-      </c>
-      <c r="O78" s="5" t="s">
+      <c r="K78" s="9">
+        <v>0</v>
+      </c>
+      <c r="L78" s="9">
+        <v>0</v>
+      </c>
+      <c r="M78" s="9">
+        <v>0</v>
+      </c>
+      <c r="N78" s="9">
+        <v>0</v>
+      </c>
+      <c r="O78" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="P78" s="5" t="s">
+      <c r="P78" s="4" t="s">
         <v>173</v>
       </c>
       <c r="Q78" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C79" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="D79" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="E79" s="11">
+      <c r="E79" s="13">
         <v>43861</v>
       </c>
-      <c r="F79" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G79" s="5" t="s">
+      <c r="F79" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G79" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H79" s="12">
+      <c r="H79" s="9">
         <v>4</v>
       </c>
-      <c r="I79" s="12">
-        <v>0</v>
-      </c>
-      <c r="J79" s="12">
+      <c r="I79" s="9">
+        <v>0</v>
+      </c>
+      <c r="J79" s="9">
         <v>9904</v>
       </c>
-      <c r="K79" s="12">
-        <v>1</v>
-      </c>
-      <c r="L79" s="12">
-        <v>1</v>
-      </c>
-      <c r="M79" s="12">
-        <v>0</v>
-      </c>
-      <c r="N79" s="12">
-        <v>0</v>
-      </c>
-      <c r="O79" s="5" t="s">
+      <c r="K79" s="9">
+        <v>1</v>
+      </c>
+      <c r="L79" s="9">
+        <v>1</v>
+      </c>
+      <c r="M79" s="9">
+        <v>0</v>
+      </c>
+      <c r="N79" s="9">
+        <v>0</v>
+      </c>
+      <c r="O79" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="P79" s="5" t="s">
+      <c r="P79" s="4" t="s">
         <v>176</v>
       </c>
       <c r="Q79" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C80" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="D80" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E80" s="11">
+      <c r="E80" s="13">
         <v>43850</v>
       </c>
-      <c r="F80" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G80" s="5" t="s">
+      <c r="F80" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G80" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="H80" s="12">
-        <v>1</v>
-      </c>
-      <c r="I80" s="12">
-        <v>0</v>
-      </c>
-      <c r="J80" s="12">
-        <v>0</v>
-      </c>
-      <c r="K80" s="12">
-        <v>0</v>
-      </c>
-      <c r="L80" s="12">
-        <v>0</v>
-      </c>
-      <c r="M80" s="12">
-        <v>0</v>
-      </c>
-      <c r="N80" s="12">
-        <v>0</v>
-      </c>
-      <c r="O80" s="5" t="s">
+      <c r="H80" s="9">
+        <v>1</v>
+      </c>
+      <c r="I80" s="9">
+        <v>0</v>
+      </c>
+      <c r="J80" s="9">
+        <v>0</v>
+      </c>
+      <c r="K80" s="9">
+        <v>0</v>
+      </c>
+      <c r="L80" s="9">
+        <v>0</v>
+      </c>
+      <c r="M80" s="9">
+        <v>0</v>
+      </c>
+      <c r="N80" s="9">
+        <v>0</v>
+      </c>
+      <c r="O80" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="P80" s="5" t="s">
+      <c r="P80" s="4" t="s">
         <v>181</v>
       </c>
       <c r="Q80" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C81" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="D81" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="E81" s="11">
+      <c r="E81" s="13">
         <v>43848</v>
       </c>
-      <c r="F81" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G81" s="5" t="s">
+      <c r="F81" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G81" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="H81" s="12">
-        <v>1</v>
-      </c>
-      <c r="I81" s="12">
-        <v>0</v>
-      </c>
-      <c r="J81" s="12">
+      <c r="H81" s="9">
+        <v>1</v>
+      </c>
+      <c r="I81" s="9">
+        <v>0</v>
+      </c>
+      <c r="J81" s="9">
         <v>2</v>
       </c>
-      <c r="K81" s="12">
-        <v>1</v>
-      </c>
-      <c r="L81" s="12">
-        <v>1</v>
-      </c>
-      <c r="M81" s="12">
-        <v>0</v>
-      </c>
-      <c r="N81" s="12">
-        <v>0</v>
-      </c>
-      <c r="O81" s="5" t="s">
+      <c r="K81" s="9">
+        <v>1</v>
+      </c>
+      <c r="L81" s="9">
+        <v>1</v>
+      </c>
+      <c r="M81" s="9">
+        <v>0</v>
+      </c>
+      <c r="N81" s="9">
+        <v>0</v>
+      </c>
+      <c r="O81" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="P81" s="5" t="s">
+      <c r="P81" s="4" t="s">
         <v>184</v>
       </c>
       <c r="Q81" t="s">
@@ -5069,5 +5071,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>